--- a/latest_rows_df.xlsx
+++ b/latest_rows_df.xlsx
@@ -660,7 +660,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B2" t="n">
         <v>62</v>
@@ -755,7 +755,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B3" t="n">
         <v>408</v>
@@ -850,7 +850,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B4" t="n">
         <v>63</v>
@@ -945,7 +945,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B5" t="n">
         <v>544</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B6" t="n">
         <v>547</v>
@@ -1135,7 +1135,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B7" t="n">
         <v>399</v>
@@ -1230,7 +1230,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B8" t="n">
         <v>402</v>
@@ -1325,7 +1325,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B9" t="n">
         <v>709</v>
@@ -1420,7 +1420,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B10" t="n">
         <v>541</v>
@@ -1515,7 +1515,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B11" t="n">
         <v>66</v>
@@ -1610,7 +1610,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B12" t="n">
         <v>67</v>
@@ -1705,7 +1705,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B13" t="n">
         <v>407</v>
@@ -1800,7 +1800,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B14" t="n">
         <v>406</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B15" t="n">
         <v>398</v>
@@ -1990,7 +1990,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B16" t="n">
         <v>542</v>
@@ -2085,7 +2085,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B17" t="n">
         <v>404</v>
@@ -2180,7 +2180,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B18" t="n">
         <v>65</v>
@@ -2275,7 +2275,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B19" t="n">
         <v>64</v>
@@ -2370,7 +2370,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B20" t="n">
         <v>543</v>
@@ -2465,7 +2465,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B21" t="n">
         <v>545</v>
@@ -2560,7 +2560,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B22" t="n">
         <v>711</v>
@@ -2655,7 +2655,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B23" t="n">
         <v>403</v>
@@ -2750,7 +2750,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B24" t="n">
         <v>710</v>
@@ -2845,7 +2845,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B25" t="n">
         <v>397</v>
@@ -2940,7 +2940,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B26" t="n">
         <v>546</v>
@@ -3035,7 +3035,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B27" t="n">
         <v>400</v>
@@ -3130,7 +3130,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B28" t="n">
         <v>401</v>
@@ -3225,7 +3225,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B29" t="n">
         <v>405</v>
@@ -3320,7 +3320,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B30" t="n">
         <v>176</v>
@@ -3415,7 +3415,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B31" t="n">
         <v>68</v>
@@ -3510,7 +3510,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B32" t="n">
         <v>369</v>
@@ -3605,7 +3605,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B33" t="n">
         <v>370</v>
@@ -3700,7 +3700,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B34" t="n">
         <v>702</v>
@@ -3795,7 +3795,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B35" t="n">
         <v>560</v>
@@ -3890,7 +3890,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B36" t="n">
         <v>80</v>
@@ -3985,7 +3985,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B37" t="n">
         <v>371</v>
@@ -4080,7 +4080,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B38" t="n">
         <v>79</v>
@@ -4175,7 +4175,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B39" t="n">
         <v>372</v>
@@ -4270,7 +4270,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B40" t="n">
         <v>81</v>
@@ -4365,7 +4365,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B41" t="n">
         <v>559</v>
@@ -4460,7 +4460,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B42" t="n">
         <v>703</v>
@@ -4555,7 +4555,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B43" t="n">
         <v>374</v>
@@ -4650,7 +4650,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B44" t="n">
         <v>558</v>
@@ -4755,7 +4755,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B45" t="n">
         <v>78</v>
@@ -4850,7 +4850,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B46" t="n">
         <v>375</v>
@@ -4945,7 +4945,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B47" t="n">
         <v>77</v>
@@ -5040,7 +5040,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B48" t="n">
         <v>376</v>
@@ -5135,7 +5135,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B49" t="n">
         <v>373</v>
@@ -5230,7 +5230,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B50" t="n">
         <v>557</v>
@@ -5325,7 +5325,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B51" t="n">
         <v>561</v>
@@ -5420,7 +5420,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B52" t="n">
         <v>367</v>
@@ -5515,7 +5515,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B53" t="n">
         <v>359</v>
@@ -5610,7 +5610,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B54" t="n">
         <v>565</v>
@@ -5705,7 +5705,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B55" t="n">
         <v>85</v>
@@ -5800,7 +5800,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B56" t="n">
         <v>360</v>
@@ -5895,7 +5895,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B57" t="n">
         <v>361</v>
@@ -5990,7 +5990,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B58" t="n">
         <v>564</v>
@@ -6085,7 +6085,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B59" t="n">
         <v>700</v>
@@ -6180,7 +6180,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B60" t="n">
         <v>362</v>
@@ -6275,7 +6275,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B61" t="n">
         <v>368</v>
@@ -6370,7 +6370,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B62" t="n">
         <v>84</v>
@@ -6465,7 +6465,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B63" t="n">
         <v>563</v>
@@ -6560,7 +6560,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B64" t="n">
         <v>83</v>
@@ -6655,7 +6655,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B65" t="n">
         <v>364</v>
@@ -6750,7 +6750,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B66" t="n">
         <v>365</v>
@@ -6845,7 +6845,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B67" t="n">
         <v>366</v>
@@ -6940,7 +6940,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B68" t="n">
         <v>562</v>
@@ -7035,7 +7035,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B69" t="n">
         <v>701</v>
@@ -7130,7 +7130,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B70" t="n">
         <v>82</v>
@@ -7225,7 +7225,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B71" t="n">
         <v>363</v>
@@ -7320,7 +7320,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B72" t="n">
         <v>377</v>
@@ -7415,7 +7415,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B73" t="n">
         <v>704</v>
@@ -7510,7 +7510,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B74" t="n">
         <v>378</v>
@@ -7605,7 +7605,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B75" t="n">
         <v>71</v>
@@ -7700,7 +7700,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B76" t="n">
         <v>740</v>
@@ -7795,7 +7795,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B77" t="n">
         <v>389</v>
@@ -7890,7 +7890,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B78" t="n">
         <v>390</v>
@@ -7985,7 +7985,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B79" t="n">
         <v>550</v>
@@ -8080,7 +8080,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B80" t="n">
         <v>707</v>
@@ -8175,7 +8175,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B81" t="n">
         <v>70</v>
@@ -8270,7 +8270,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B82" t="n">
         <v>3</v>
@@ -8365,7 +8365,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B83" t="n">
         <v>551</v>
@@ -8460,7 +8460,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B84" t="n">
         <v>391</v>
@@ -8555,7 +8555,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B85" t="n">
         <v>549</v>
@@ -8650,7 +8650,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B86" t="n">
         <v>69</v>
@@ -8745,7 +8745,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B87" t="n">
         <v>393</v>
@@ -8840,7 +8840,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B88" t="n">
         <v>394</v>
@@ -8935,7 +8935,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B89" t="n">
         <v>548</v>
@@ -9030,7 +9030,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B90" t="n">
         <v>708</v>
@@ -9125,7 +9125,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B91" t="n">
         <v>734</v>
@@ -9220,7 +9220,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B92" t="n">
         <v>395</v>
@@ -9315,7 +9315,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B93" t="n">
         <v>392</v>
@@ -9410,7 +9410,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B94" t="n">
         <v>388</v>
@@ -9505,7 +9505,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B95" t="n">
         <v>387</v>
@@ -9600,7 +9600,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B96" t="n">
         <v>72</v>
@@ -9695,7 +9695,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B97" t="n">
         <v>556</v>
@@ -9790,7 +9790,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B98" t="n">
         <v>76</v>
@@ -9885,7 +9885,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B99" t="n">
         <v>379</v>
@@ -9980,7 +9980,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B100" t="n">
         <v>75</v>
@@ -10075,7 +10075,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B101" t="n">
         <v>380</v>
@@ -10170,7 +10170,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B102" t="n">
         <v>555</v>
@@ -10265,7 +10265,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B103" t="n">
         <v>381</v>
@@ -10360,7 +10360,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B104" t="n">
         <v>705</v>
@@ -10455,7 +10455,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B105" t="n">
         <v>382</v>
@@ -10550,7 +10550,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B106" t="n">
         <v>554</v>
@@ -10645,7 +10645,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B107" t="n">
         <v>15</v>
@@ -10740,7 +10740,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B108" t="n">
         <v>74</v>
@@ -10835,7 +10835,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B109" t="n">
         <v>383</v>
@@ -10930,7 +10930,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B110" t="n">
         <v>553</v>
@@ -11025,7 +11025,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B111" t="n">
         <v>73</v>
@@ -11120,7 +11120,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B112" t="n">
         <v>385</v>
@@ -11215,7 +11215,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B113" t="n">
         <v>386</v>
@@ -11310,7 +11310,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B114" t="n">
         <v>552</v>
@@ -11405,7 +11405,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B115" t="n">
         <v>706</v>
@@ -11500,7 +11500,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B116" t="n">
         <v>396</v>
@@ -11595,7 +11595,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B117" t="n">
         <v>384</v>
@@ -11690,7 +11690,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B118" t="n">
         <v>532</v>
@@ -11785,7 +11785,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B119" t="n">
         <v>61</v>
@@ -11880,7 +11880,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B120" t="n">
         <v>465</v>
@@ -11975,7 +11975,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B121" t="n">
         <v>513</v>
@@ -12070,7 +12070,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B122" t="n">
         <v>33</v>
@@ -12165,7 +12165,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B123" t="n">
         <v>466</v>
@@ -12260,7 +12260,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B124" t="n">
         <v>32</v>
@@ -12355,7 +12355,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B125" t="n">
         <v>467</v>
@@ -12450,7 +12450,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B126" t="n">
         <v>512</v>
@@ -12545,7 +12545,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B127" t="n">
         <v>468</v>
@@ -12640,7 +12640,7 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B128" t="n">
         <v>726</v>
@@ -12735,7 +12735,7 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B129" t="n">
         <v>469</v>
@@ -12830,7 +12830,7 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B130" t="n">
         <v>511</v>
@@ -12925,7 +12925,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B131" t="n">
         <v>31</v>
@@ -13020,7 +13020,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B132" t="n">
         <v>470</v>
@@ -13115,7 +13115,7 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B133" t="n">
         <v>30</v>
@@ -13210,7 +13210,7 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B134" t="n">
         <v>471</v>
@@ -13305,7 +13305,7 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B135" t="n">
         <v>510</v>
@@ -13400,7 +13400,7 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B136" t="n">
         <v>472</v>
@@ -13495,7 +13495,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B137" t="n">
         <v>727</v>
@@ -13590,7 +13590,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B138" t="n">
         <v>473</v>
@@ -13685,7 +13685,7 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B139" t="n">
         <v>509</v>
@@ -13780,7 +13780,7 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B140" t="n">
         <v>29</v>
@@ -13875,7 +13875,7 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B141" t="n">
         <v>725</v>
@@ -13970,7 +13970,7 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B142" t="n">
         <v>474</v>
@@ -14065,7 +14065,7 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B143" t="n">
         <v>464</v>
@@ -14160,7 +14160,7 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B144" t="n">
         <v>463</v>
@@ -14255,7 +14255,7 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B145" t="n">
         <v>454</v>
@@ -14350,7 +14350,7 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B146" t="n">
         <v>38</v>
@@ -14445,7 +14445,7 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B147" t="n">
         <v>455</v>
@@ -14540,7 +14540,7 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B148" t="n">
         <v>518</v>
@@ -14635,7 +14635,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B149" t="n">
         <v>456</v>
@@ -14730,7 +14730,7 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B150" t="n">
         <v>723</v>
@@ -14825,7 +14825,7 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B151" t="n">
         <v>457</v>
@@ -14930,7 +14930,7 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B152" t="n">
         <v>517</v>
@@ -15025,7 +15025,7 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B153" t="n">
         <v>37</v>
@@ -15120,7 +15120,7 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B154" t="n">
         <v>458</v>
@@ -15215,7 +15215,7 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B155" t="n">
         <v>36</v>
@@ -15310,7 +15310,7 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B156" t="n">
         <v>459</v>
@@ -15405,7 +15405,7 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B157" t="n">
         <v>516</v>
@@ -15500,7 +15500,7 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B158" t="n">
         <v>460</v>
@@ -15595,7 +15595,7 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B159" t="n">
         <v>724</v>
@@ -15690,7 +15690,7 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B160" t="n">
         <v>461</v>
@@ -15785,7 +15785,7 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B161" t="n">
         <v>515</v>
@@ -15880,7 +15880,7 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B162" t="n">
         <v>35</v>
@@ -15975,7 +15975,7 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B163" t="n">
         <v>0</v>
@@ -16070,7 +16070,7 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B164" t="n">
         <v>462</v>
@@ -16165,7 +16165,7 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B165" t="n">
         <v>34</v>
@@ -16260,7 +16260,7 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B166" t="n">
         <v>514</v>
@@ -16355,7 +16355,7 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B167" t="n">
         <v>28</v>
@@ -16450,7 +16450,7 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B168" t="n">
         <v>475</v>
@@ -16555,7 +16555,7 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B169" t="n">
         <v>508</v>
@@ -16650,7 +16650,7 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B170" t="n">
         <v>488</v>
@@ -16745,7 +16745,7 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B171" t="n">
         <v>502</v>
@@ -16840,7 +16840,7 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B172" t="n">
         <v>731</v>
@@ -16935,7 +16935,7 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B173" t="n">
         <v>489</v>
@@ -17030,7 +17030,7 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B174" t="n">
         <v>17</v>
@@ -17125,7 +17125,7 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B175" t="n">
         <v>490</v>
@@ -17220,7 +17220,7 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B176" t="n">
         <v>501</v>
@@ -17315,7 +17315,7 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B177" t="n">
         <v>21</v>
@@ -17410,7 +17410,7 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B178" t="n">
         <v>491</v>
@@ -17505,7 +17505,7 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B179" t="n">
         <v>20</v>
@@ -17600,7 +17600,7 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B180" t="n">
         <v>492</v>
@@ -17695,7 +17695,7 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B181" t="n">
         <v>500</v>
@@ -17790,7 +17790,7 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B182" t="n">
         <v>493</v>
@@ -17885,7 +17885,7 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B183" t="n">
         <v>732</v>
@@ -17980,7 +17980,7 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B184" t="n">
         <v>494</v>
@@ -18075,7 +18075,7 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B185" t="n">
         <v>499</v>
@@ -18170,7 +18170,7 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B186" t="n">
         <v>19</v>
@@ -18265,7 +18265,7 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B187" t="n">
         <v>495</v>
@@ -18360,7 +18360,7 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B188" t="n">
         <v>18</v>
@@ -18455,7 +18455,7 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B189" t="n">
         <v>496</v>
@@ -18550,7 +18550,7 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B190" t="n">
         <v>498</v>
@@ -18645,7 +18645,7 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B191" t="n">
         <v>487</v>
@@ -18740,7 +18740,7 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B192" t="n">
         <v>22</v>
@@ -18835,7 +18835,7 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B193" t="n">
         <v>503</v>
@@ -18930,7 +18930,7 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B194" t="n">
         <v>486</v>
@@ -19025,7 +19025,7 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B195" t="n">
         <v>476</v>
@@ -19120,7 +19120,7 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B196" t="n">
         <v>728</v>
@@ -19215,7 +19215,7 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B197" t="n">
         <v>477</v>
@@ -19310,7 +19310,7 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B198" t="n">
         <v>507</v>
@@ -19405,7 +19405,7 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B199" t="n">
         <v>27</v>
@@ -19500,7 +19500,7 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B200" t="n">
         <v>478</v>
@@ -19595,7 +19595,7 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B201" t="n">
         <v>26</v>
@@ -19690,7 +19690,7 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B202" t="n">
         <v>479</v>
@@ -19785,7 +19785,7 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B203" t="n">
         <v>506</v>
@@ -19880,7 +19880,7 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B204" t="n">
         <v>480</v>
@@ -19975,7 +19975,7 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B205" t="n">
         <v>16</v>
@@ -20070,7 +20070,7 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B206" t="n">
         <v>729</v>
@@ -20165,7 +20165,7 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B207" t="n">
         <v>25</v>
@@ -20260,7 +20260,7 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B208" t="n">
         <v>505</v>
@@ -20355,7 +20355,7 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B209" t="n">
         <v>482</v>
@@ -20450,7 +20450,7 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B210" t="n">
         <v>24</v>
@@ -20545,7 +20545,7 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B211" t="n">
         <v>483</v>
@@ -20640,7 +20640,7 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B212" t="n">
         <v>484</v>
@@ -20735,7 +20735,7 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B213" t="n">
         <v>504</v>
@@ -20830,7 +20830,7 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B214" t="n">
         <v>730</v>
@@ -20925,7 +20925,7 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B215" t="n">
         <v>485</v>
@@ -21020,7 +21020,7 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B216" t="n">
         <v>23</v>
@@ -21115,7 +21115,7 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B217" t="n">
         <v>481</v>
@@ -21210,7 +21210,7 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B218" t="n">
         <v>519</v>
@@ -21305,7 +21305,7 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B219" t="n">
         <v>453</v>
@@ -21400,7 +21400,7 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B220" t="n">
         <v>39</v>
@@ -21495,7 +21495,7 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B221" t="n">
         <v>535</v>
@@ -21590,7 +21590,7 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B222" t="n">
         <v>55</v>
@@ -21685,7 +21685,7 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B223" t="n">
         <v>422</v>
@@ -21780,7 +21780,7 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B224" t="n">
         <v>715</v>
@@ -21875,7 +21875,7 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B225" t="n">
         <v>423</v>
@@ -21970,7 +21970,7 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B226" t="n">
         <v>534</v>
@@ -22065,7 +22065,7 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B227" t="n">
         <v>54</v>
@@ -22160,7 +22160,7 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B228" t="n">
         <v>424</v>
@@ -22255,7 +22255,7 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B229" t="n">
         <v>53</v>
@@ -22350,7 +22350,7 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B230" t="n">
         <v>425</v>
@@ -22445,7 +22445,7 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B231" t="n">
         <v>533</v>
@@ -22540,7 +22540,7 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B232" t="n">
         <v>426</v>
@@ -22635,7 +22635,7 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B233" t="n">
         <v>716</v>
@@ -22730,7 +22730,7 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B234" t="n">
         <v>427</v>
@@ -22825,7 +22825,7 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B235" t="n">
         <v>52</v>
@@ -22920,7 +22920,7 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B236" t="n">
         <v>428</v>
@@ -23015,7 +23015,7 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B237" t="n">
         <v>51</v>
@@ -23110,7 +23110,7 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B238" t="n">
         <v>429</v>
@@ -23205,7 +23205,7 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B239" t="n">
         <v>531</v>
@@ -23300,7 +23300,7 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B240" t="n">
         <v>50</v>
@@ -23395,7 +23395,7 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B241" t="n">
         <v>430</v>
@@ -23490,7 +23490,7 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B242" t="n">
         <v>421</v>
@@ -23585,7 +23585,7 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B243" t="n">
         <v>420</v>
@@ -23680,7 +23680,7 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B244" t="n">
         <v>56</v>
@@ -23775,7 +23775,7 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B245" t="n">
         <v>714</v>
@@ -23870,7 +23870,7 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B246" t="n">
         <v>409</v>
@@ -23965,7 +23965,7 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B247" t="n">
         <v>410</v>
@@ -24060,7 +24060,7 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B248" t="n">
         <v>540</v>
@@ -24155,7 +24155,7 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B249" t="n">
         <v>712</v>
@@ -24250,7 +24250,7 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B250" t="n">
         <v>411</v>
@@ -24355,7 +24355,7 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B251" t="n">
         <v>60</v>
@@ -24450,7 +24450,7 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B252" t="n">
         <v>412</v>
@@ -24545,7 +24545,7 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B253" t="n">
         <v>539</v>
@@ -24640,7 +24640,7 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B254" t="n">
         <v>59</v>
@@ -24735,7 +24735,7 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B255" t="n">
         <v>413</v>
@@ -24830,7 +24830,7 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B256" t="n">
         <v>431</v>
@@ -24925,7 +24925,7 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B257" t="n">
         <v>414</v>
@@ -25020,7 +25020,7 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B258" t="n">
         <v>538</v>
@@ -25125,7 +25125,7 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B259" t="n">
         <v>713</v>
@@ -25220,7 +25220,7 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B260" t="n">
         <v>58</v>
@@ -25315,7 +25315,7 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B261" t="n">
         <v>416</v>
@@ -25410,7 +25410,7 @@
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B262" t="n">
         <v>417</v>
@@ -25505,7 +25505,7 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B263" t="n">
         <v>537</v>
@@ -25600,7 +25600,7 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B264" t="n">
         <v>57</v>
@@ -25695,7 +25695,7 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B265" t="n">
         <v>418</v>
@@ -25790,7 +25790,7 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B266" t="n">
         <v>419</v>
@@ -25885,7 +25885,7 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B267" t="n">
         <v>536</v>
@@ -25980,7 +25980,7 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B268" t="n">
         <v>415</v>
@@ -26075,7 +26075,7 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B269" t="n">
         <v>2</v>
@@ -26170,7 +26170,7 @@
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B270" t="n">
         <v>530</v>
@@ -26265,7 +26265,7 @@
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B271" t="n">
         <v>432</v>
@@ -26360,7 +26360,7 @@
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B272" t="n">
         <v>720</v>
@@ -26455,7 +26455,7 @@
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B273" t="n">
         <v>1</v>
@@ -26550,7 +26550,7 @@
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B274" t="n">
         <v>444</v>
@@ -26645,7 +26645,7 @@
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B275" t="n">
         <v>43</v>
@@ -26740,7 +26740,7 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B276" t="n">
         <v>445</v>
@@ -26835,7 +26835,7 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B277" t="n">
         <v>523</v>
@@ -26930,7 +26930,7 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B278" t="n">
         <v>42</v>
@@ -27025,7 +27025,7 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B279" t="n">
         <v>446</v>
@@ -27120,7 +27120,7 @@
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B280" t="n">
         <v>447</v>
@@ -27215,7 +27215,7 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B281" t="n">
         <v>522</v>
@@ -27310,7 +27310,7 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B282" t="n">
         <v>721</v>
@@ -27405,7 +27405,7 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B283" t="n">
         <v>448</v>
@@ -27500,7 +27500,7 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B284" t="n">
         <v>41</v>
@@ -27595,7 +27595,7 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B285" t="n">
         <v>449</v>
@@ -27690,7 +27690,7 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B286" t="n">
         <v>521</v>
@@ -27785,7 +27785,7 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B287" t="n">
         <v>40</v>
@@ -27880,7 +27880,7 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B288" t="n">
         <v>450</v>
@@ -27985,7 +27985,7 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B289" t="n">
         <v>451</v>
@@ -28080,7 +28080,7 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B290" t="n">
         <v>520</v>
@@ -28175,7 +28175,7 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B291" t="n">
         <v>722</v>
@@ -28270,7 +28270,7 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B292" t="n">
         <v>452</v>
@@ -28365,7 +28365,7 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B293" t="n">
         <v>741</v>
@@ -28460,7 +28460,7 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B294" t="n">
         <v>524</v>
@@ -28555,7 +28555,7 @@
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B295" t="n">
         <v>443</v>
@@ -28660,7 +28660,7 @@
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B296" t="n">
         <v>442</v>
@@ -28755,7 +28755,7 @@
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B297" t="n">
         <v>49</v>
@@ -28850,7 +28850,7 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B298" t="n">
         <v>433</v>
@@ -28945,7 +28945,7 @@
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B299" t="n">
         <v>529</v>
@@ -29040,7 +29040,7 @@
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B300" t="n">
         <v>48</v>
@@ -29135,7 +29135,7 @@
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B301" t="n">
         <v>434</v>
@@ -29230,7 +29230,7 @@
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B302" t="n">
         <v>435</v>
@@ -29325,7 +29325,7 @@
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B303" t="n">
         <v>528</v>
@@ -29420,7 +29420,7 @@
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B304" t="n">
         <v>718</v>
@@ -29515,7 +29515,7 @@
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B305" t="n">
         <v>436</v>
@@ -29610,7 +29610,7 @@
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B306" t="n">
         <v>47</v>
@@ -29705,7 +29705,7 @@
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B307" t="n">
         <v>717</v>
@@ -29800,7 +29800,7 @@
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B308" t="n">
         <v>437</v>
@@ -29895,7 +29895,7 @@
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B309" t="n">
         <v>46</v>
@@ -29990,7 +29990,7 @@
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B310" t="n">
         <v>438</v>
@@ -30085,7 +30085,7 @@
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B311" t="n">
         <v>439</v>
@@ -30190,7 +30190,7 @@
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B312" t="n">
         <v>526</v>
@@ -30285,7 +30285,7 @@
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B313" t="n">
         <v>719</v>
@@ -30380,7 +30380,7 @@
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B314" t="n">
         <v>440</v>
@@ -30475,7 +30475,7 @@
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B315" t="n">
         <v>45</v>
@@ -30570,7 +30570,7 @@
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B316" t="n">
         <v>441</v>
@@ -30665,7 +30665,7 @@
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B317" t="n">
         <v>525</v>
@@ -30760,7 +30760,7 @@
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B318" t="n">
         <v>44</v>
@@ -30855,7 +30855,7 @@
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B319" t="n">
         <v>527</v>
@@ -30950,7 +30950,7 @@
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B320" t="n">
         <v>86</v>
@@ -31045,7 +31045,7 @@
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B321" t="n">
         <v>97</v>
@@ -31140,7 +31140,7 @@
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B322" t="n">
         <v>699</v>
@@ -31235,7 +31235,7 @@
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B323" t="n">
         <v>147</v>
@@ -31330,7 +31330,7 @@
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B324" t="n">
         <v>234</v>
@@ -31425,7 +31425,7 @@
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B325" t="n">
         <v>235</v>
@@ -31520,7 +31520,7 @@
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B326" t="n">
         <v>626</v>
@@ -31615,7 +31615,7 @@
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B327" t="n">
         <v>670</v>
@@ -31710,7 +31710,7 @@
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B328" t="n">
         <v>146</v>
@@ -31805,7 +31805,7 @@
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B329" t="n">
         <v>236</v>
@@ -31900,7 +31900,7 @@
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B330" t="n">
         <v>237</v>
@@ -31995,7 +31995,7 @@
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B331" t="n">
         <v>625</v>
@@ -32090,7 +32090,7 @@
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B332" t="n">
         <v>145</v>
@@ -32185,7 +32185,7 @@
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B333" t="n">
         <v>627</v>
@@ -32280,7 +32280,7 @@
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B334" t="n">
         <v>12</v>
@@ -32375,7 +32375,7 @@
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B335" t="n">
         <v>239</v>
@@ -32470,7 +32470,7 @@
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B336" t="n">
         <v>624</v>
@@ -32565,7 +32565,7 @@
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B337" t="n">
         <v>144</v>
@@ -32660,7 +32660,7 @@
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B338" t="n">
         <v>240</v>
@@ -32755,7 +32755,7 @@
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B339" t="n">
         <v>241</v>
@@ -32850,7 +32850,7 @@
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B340" t="n">
         <v>623</v>
@@ -32945,7 +32945,7 @@
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B341" t="n">
         <v>671</v>
@@ -33040,7 +33040,7 @@
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B342" t="n">
         <v>143</v>
@@ -33135,7 +33135,7 @@
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B343" t="n">
         <v>242</v>
@@ -33230,7 +33230,7 @@
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B344" t="n">
         <v>243</v>
@@ -33325,7 +33325,7 @@
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B345" t="n">
         <v>238</v>
@@ -33420,7 +33420,7 @@
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B346" t="n">
         <v>9</v>
@@ -33515,7 +33515,7 @@
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B347" t="n">
         <v>233</v>
@@ -33610,7 +33610,7 @@
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B348" t="n">
         <v>232</v>
@@ -33705,7 +33705,7 @@
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B349" t="n">
         <v>223</v>
@@ -33800,7 +33800,7 @@
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B350" t="n">
         <v>632</v>
@@ -33895,7 +33895,7 @@
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B351" t="n">
         <v>667</v>
@@ -33990,7 +33990,7 @@
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B352" t="n">
         <v>152</v>
@@ -34085,7 +34085,7 @@
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B353" t="n">
         <v>224</v>
@@ -34180,7 +34180,7 @@
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B354" t="n">
         <v>225</v>
@@ -34275,7 +34275,7 @@
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B355" t="n">
         <v>631</v>
@@ -34370,7 +34370,7 @@
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B356" t="n">
         <v>151</v>
@@ -34465,7 +34465,7 @@
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B357" t="n">
         <v>226</v>
@@ -34560,7 +34560,7 @@
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B358" t="n">
         <v>227</v>
@@ -34655,7 +34655,7 @@
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B359" t="n">
         <v>630</v>
@@ -34750,7 +34750,7 @@
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B360" t="n">
         <v>668</v>
@@ -34845,7 +34845,7 @@
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B361" t="n">
         <v>150</v>
@@ -34940,7 +34940,7 @@
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B362" t="n">
         <v>228</v>
@@ -35035,7 +35035,7 @@
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B363" t="n">
         <v>229</v>
@@ -35130,7 +35130,7 @@
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B364" t="n">
         <v>737</v>
@@ -35225,7 +35225,7 @@
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B365" t="n">
         <v>629</v>
@@ -35320,7 +35320,7 @@
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B366" t="n">
         <v>149</v>
@@ -35415,7 +35415,7 @@
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B367" t="n">
         <v>230</v>
@@ -35510,7 +35510,7 @@
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B368" t="n">
         <v>231</v>
@@ -35605,7 +35605,7 @@
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B369" t="n">
         <v>628</v>
@@ -35700,7 +35700,7 @@
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B370" t="n">
         <v>669</v>
@@ -35795,7 +35795,7 @@
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B371" t="n">
         <v>148</v>
@@ -35890,7 +35890,7 @@
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B372" t="n">
         <v>622</v>
@@ -35985,7 +35985,7 @@
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B373" t="n">
         <v>222</v>
@@ -36080,7 +36080,7 @@
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B374" t="n">
         <v>142</v>
@@ -36175,7 +36175,7 @@
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B375" t="n">
         <v>245</v>
@@ -36270,7 +36270,7 @@
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B376" t="n">
         <v>256</v>
@@ -36365,7 +36365,7 @@
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B377" t="n">
         <v>257</v>
@@ -36460,7 +36460,7 @@
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B378" t="n">
         <v>733</v>
@@ -36555,7 +36555,7 @@
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B379" t="n">
         <v>258</v>
@@ -36650,7 +36650,7 @@
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B380" t="n">
         <v>615</v>
@@ -36745,7 +36745,7 @@
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B381" t="n">
         <v>675</v>
@@ -36840,7 +36840,7 @@
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B382" t="n">
         <v>135</v>
@@ -36935,7 +36935,7 @@
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B383" t="n">
         <v>259</v>
@@ -37030,7 +37030,7 @@
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B384" t="n">
         <v>260</v>
@@ -37125,7 +37125,7 @@
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B385" t="n">
         <v>614</v>
@@ -37220,7 +37220,7 @@
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B386" t="n">
         <v>616</v>
@@ -37315,7 +37315,7 @@
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B387" t="n">
         <v>134</v>
@@ -37410,7 +37410,7 @@
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B388" t="n">
         <v>262</v>
@@ -37505,7 +37505,7 @@
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B389" t="n">
         <v>613</v>
@@ -37600,7 +37600,7 @@
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B390" t="n">
         <v>676</v>
@@ -37695,7 +37695,7 @@
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B391" t="n">
         <v>133</v>
@@ -37790,7 +37790,7 @@
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B392" t="n">
         <v>263</v>
@@ -37885,7 +37885,7 @@
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B393" t="n">
         <v>264</v>
@@ -37980,7 +37980,7 @@
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B394" t="n">
         <v>612</v>
@@ -38075,7 +38075,7 @@
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B395" t="n">
         <v>132</v>
@@ -38170,7 +38170,7 @@
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B396" t="n">
         <v>265</v>
@@ -38265,7 +38265,7 @@
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B397" t="n">
         <v>266</v>
@@ -38360,7 +38360,7 @@
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B398" t="n">
         <v>261</v>
@@ -38455,7 +38455,7 @@
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B399" t="n">
         <v>136</v>
@@ -38550,7 +38550,7 @@
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B400" t="n">
         <v>255</v>
@@ -38645,7 +38645,7 @@
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B401" t="n">
         <v>254</v>
@@ -38740,7 +38740,7 @@
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B402" t="n">
         <v>621</v>
@@ -38835,7 +38835,7 @@
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B403" t="n">
         <v>672</v>
@@ -38930,7 +38930,7 @@
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B404" t="n">
         <v>141</v>
@@ -39025,7 +39025,7 @@
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B405" t="n">
         <v>246</v>
@@ -39120,7 +39120,7 @@
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B406" t="n">
         <v>247</v>
@@ -39215,7 +39215,7 @@
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B407" t="n">
         <v>620</v>
@@ -39310,7 +39310,7 @@
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B408" t="n">
         <v>140</v>
@@ -39405,7 +39405,7 @@
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B409" t="n">
         <v>497</v>
@@ -39500,7 +39500,7 @@
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B410" t="n">
         <v>248</v>
@@ -39595,7 +39595,7 @@
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B411" t="n">
         <v>249</v>
@@ -39690,7 +39690,7 @@
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B412" t="n">
         <v>619</v>
@@ -39785,7 +39785,7 @@
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B413" t="n">
         <v>673</v>
@@ -39880,7 +39880,7 @@
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B414" t="n">
         <v>139</v>
@@ -39975,7 +39975,7 @@
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B415" t="n">
         <v>250</v>
@@ -40070,7 +40070,7 @@
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B416" t="n">
         <v>8</v>
@@ -40165,7 +40165,7 @@
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B417" t="n">
         <v>251</v>
@@ -40260,7 +40260,7 @@
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B418" t="n">
         <v>618</v>
@@ -40355,7 +40355,7 @@
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B419" t="n">
         <v>138</v>
@@ -40450,7 +40450,7 @@
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B420" t="n">
         <v>252</v>
@@ -40545,7 +40545,7 @@
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B421" t="n">
         <v>253</v>
@@ -40640,7 +40640,7 @@
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B422" t="n">
         <v>617</v>
@@ -40735,7 +40735,7 @@
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B423" t="n">
         <v>674</v>
@@ -40830,7 +40830,7 @@
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B424" t="n">
         <v>137</v>
@@ -40925,7 +40925,7 @@
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B425" t="n">
         <v>244</v>
@@ -41020,7 +41020,7 @@
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B426" t="n">
         <v>611</v>
@@ -41115,7 +41115,7 @@
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B427" t="n">
         <v>153</v>
@@ -41210,7 +41210,7 @@
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B428" t="n">
         <v>221</v>
@@ -41305,7 +41305,7 @@
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B429" t="n">
         <v>170</v>
@@ -41400,7 +41400,7 @@
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B430" t="n">
         <v>188</v>
@@ -41495,7 +41495,7 @@
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B431" t="n">
         <v>649</v>
@@ -41590,7 +41590,7 @@
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B432" t="n">
         <v>169</v>
@@ -41685,7 +41685,7 @@
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B433" t="n">
         <v>189</v>
@@ -41780,7 +41780,7 @@
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B434" t="n">
         <v>190</v>
@@ -41875,7 +41875,7 @@
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B435" t="n">
         <v>648</v>
@@ -41970,7 +41970,7 @@
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B436" t="n">
         <v>659</v>
@@ -42065,7 +42065,7 @@
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B437" t="n">
         <v>191</v>
@@ -42160,7 +42160,7 @@
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B438" t="n">
         <v>168</v>
@@ -42255,7 +42255,7 @@
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B439" t="n">
         <v>187</v>
@@ -42350,7 +42350,7 @@
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B440" t="n">
         <v>192</v>
@@ -42445,7 +42445,7 @@
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B441" t="n">
         <v>167</v>
@@ -42540,7 +42540,7 @@
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B442" t="n">
         <v>193</v>
@@ -42635,7 +42635,7 @@
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B443" t="n">
         <v>194</v>
@@ -42730,7 +42730,7 @@
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B444" t="n">
         <v>646</v>
@@ -42825,7 +42825,7 @@
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B445" t="n">
         <v>660</v>
@@ -42920,7 +42920,7 @@
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B446" t="n">
         <v>195</v>
@@ -43015,7 +43015,7 @@
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B447" t="n">
         <v>166</v>
@@ -43110,7 +43110,7 @@
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B448" t="n">
         <v>196</v>
@@ -43205,7 +43205,7 @@
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B449" t="n">
         <v>645</v>
@@ -43300,7 +43300,7 @@
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B450" t="n">
         <v>165</v>
@@ -43395,7 +43395,7 @@
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B451" t="n">
         <v>647</v>
@@ -43490,7 +43490,7 @@
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B452" t="n">
         <v>658</v>
@@ -43585,7 +43585,7 @@
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B453" t="n">
         <v>650</v>
@@ -43680,7 +43680,7 @@
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B454" t="n">
         <v>186</v>
@@ -43775,7 +43775,7 @@
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B455" t="n">
         <v>655</v>
@@ -43870,7 +43870,7 @@
     </row>
     <row r="456">
       <c r="A456" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B456" t="n">
         <v>736</v>
@@ -43965,7 +43965,7 @@
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B457" t="n">
         <v>175</v>
@@ -44060,7 +44060,7 @@
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B458" t="n">
         <v>177</v>
@@ -44155,7 +44155,7 @@
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B459" t="n">
         <v>178</v>
@@ -44250,7 +44250,7 @@
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B460" t="n">
         <v>654</v>
@@ -44345,7 +44345,7 @@
     </row>
     <row r="461">
       <c r="A461" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B461" t="n">
         <v>656</v>
@@ -44440,7 +44440,7 @@
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B462" t="n">
         <v>179</v>
@@ -44535,7 +44535,7 @@
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B463" t="n">
         <v>174</v>
@@ -44630,7 +44630,7 @@
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B464" t="n">
         <v>180</v>
@@ -44725,7 +44725,7 @@
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B465" t="n">
         <v>11</v>
@@ -44820,7 +44820,7 @@
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B466" t="n">
         <v>653</v>
@@ -44915,7 +44915,7 @@
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B467" t="n">
         <v>173</v>
@@ -45010,7 +45010,7 @@
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B468" t="n">
         <v>181</v>
@@ -45105,7 +45105,7 @@
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B469" t="n">
         <v>182</v>
@@ -45200,7 +45200,7 @@
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B470" t="n">
         <v>652</v>
@@ -45295,7 +45295,7 @@
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B471" t="n">
         <v>657</v>
@@ -45390,7 +45390,7 @@
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B472" t="n">
         <v>183</v>
@@ -45485,7 +45485,7 @@
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B473" t="n">
         <v>172</v>
@@ -45580,7 +45580,7 @@
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B474" t="n">
         <v>184</v>
@@ -45675,7 +45675,7 @@
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B475" t="n">
         <v>651</v>
@@ -45770,7 +45770,7 @@
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B476" t="n">
         <v>171</v>
@@ -45865,7 +45865,7 @@
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B477" t="n">
         <v>185</v>
@@ -45960,7 +45960,7 @@
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B478" t="n">
         <v>197</v>
@@ -46055,7 +46055,7 @@
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B479" t="n">
         <v>633</v>
@@ -46150,7 +46150,7 @@
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B480" t="n">
         <v>10</v>
@@ -46245,7 +46245,7 @@
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B481" t="n">
         <v>644</v>
@@ -46340,7 +46340,7 @@
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B482" t="n">
         <v>638</v>
@@ -46435,7 +46435,7 @@
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B483" t="n">
         <v>664</v>
@@ -46530,7 +46530,7 @@
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B484" t="n">
         <v>158</v>
@@ -46625,7 +46625,7 @@
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B485" t="n">
         <v>212</v>
@@ -46720,7 +46720,7 @@
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B486" t="n">
         <v>213</v>
@@ -46815,7 +46815,7 @@
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B487" t="n">
         <v>637</v>
@@ -46910,7 +46910,7 @@
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B488" t="n">
         <v>157</v>
@@ -47005,7 +47005,7 @@
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B489" t="n">
         <v>214</v>
@@ -47100,7 +47100,7 @@
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B490" t="n">
         <v>215</v>
@@ -47195,7 +47195,7 @@
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B491" t="n">
         <v>636</v>
@@ -47290,7 +47290,7 @@
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B492" t="n">
         <v>211</v>
@@ -47385,7 +47385,7 @@
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B493" t="n">
         <v>665</v>
@@ -47480,7 +47480,7 @@
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B494" t="n">
         <v>216</v>
@@ -47575,7 +47575,7 @@
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B495" t="n">
         <v>217</v>
@@ -47670,7 +47670,7 @@
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B496" t="n">
         <v>635</v>
@@ -47765,7 +47765,7 @@
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B497" t="n">
         <v>155</v>
@@ -47860,7 +47860,7 @@
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B498" t="n">
         <v>218</v>
@@ -47955,7 +47955,7 @@
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B499" t="n">
         <v>219</v>
@@ -48050,7 +48050,7 @@
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B500" t="n">
         <v>634</v>
@@ -48145,7 +48145,7 @@
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B501" t="n">
         <v>666</v>
@@ -48240,7 +48240,7 @@
     </row>
     <row r="502">
       <c r="A502" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B502" t="n">
         <v>154</v>
@@ -48335,7 +48335,7 @@
     </row>
     <row r="503">
       <c r="A503" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B503" t="n">
         <v>220</v>
@@ -48430,7 +48430,7 @@
     </row>
     <row r="504">
       <c r="A504" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B504" t="n">
         <v>156</v>
@@ -48525,7 +48525,7 @@
     </row>
     <row r="505">
       <c r="A505" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B505" t="n">
         <v>210</v>
@@ -48620,7 +48620,7 @@
     </row>
     <row r="506">
       <c r="A506" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B506" t="n">
         <v>159</v>
@@ -48715,7 +48715,7 @@
     </row>
     <row r="507">
       <c r="A507" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B507" t="n">
         <v>639</v>
@@ -48810,7 +48810,7 @@
     </row>
     <row r="508">
       <c r="A508" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B508" t="n">
         <v>661</v>
@@ -48905,7 +48905,7 @@
     </row>
     <row r="509">
       <c r="A509" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B509" t="n">
         <v>199</v>
@@ -49000,7 +49000,7 @@
     </row>
     <row r="510">
       <c r="A510" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B510" t="n">
         <v>164</v>
@@ -49095,7 +49095,7 @@
     </row>
     <row r="511">
       <c r="A511" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B511" t="n">
         <v>200</v>
@@ -49190,7 +49190,7 @@
     </row>
     <row r="512">
       <c r="A512" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B512" t="n">
         <v>643</v>
@@ -49285,7 +49285,7 @@
     </row>
     <row r="513">
       <c r="A513" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B513" t="n">
         <v>163</v>
@@ -49380,7 +49380,7 @@
     </row>
     <row r="514">
       <c r="A514" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B514" t="n">
         <v>201</v>
@@ -49475,7 +49475,7 @@
     </row>
     <row r="515">
       <c r="A515" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B515" t="n">
         <v>202</v>
@@ -49570,7 +49570,7 @@
     </row>
     <row r="516">
       <c r="A516" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B516" t="n">
         <v>203</v>
@@ -49665,7 +49665,7 @@
     </row>
     <row r="517">
       <c r="A517" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B517" t="n">
         <v>642</v>
@@ -49760,7 +49760,7 @@
     </row>
     <row r="518">
       <c r="A518" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B518" t="n">
         <v>662</v>
@@ -49855,7 +49855,7 @@
     </row>
     <row r="519">
       <c r="A519" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B519" t="n">
         <v>162</v>
@@ -49950,7 +49950,7 @@
     </row>
     <row r="520">
       <c r="A520" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B520" t="n">
         <v>204</v>
@@ -50045,7 +50045,7 @@
     </row>
     <row r="521">
       <c r="A521" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B521" t="n">
         <v>205</v>
@@ -50140,7 +50140,7 @@
     </row>
     <row r="522">
       <c r="A522" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B522" t="n">
         <v>641</v>
@@ -50235,7 +50235,7 @@
     </row>
     <row r="523">
       <c r="A523" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B523" t="n">
         <v>161</v>
@@ -50330,7 +50330,7 @@
     </row>
     <row r="524">
       <c r="A524" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B524" t="n">
         <v>206</v>
@@ -50425,7 +50425,7 @@
     </row>
     <row r="525">
       <c r="A525" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B525" t="n">
         <v>207</v>
@@ -50520,7 +50520,7 @@
     </row>
     <row r="526">
       <c r="A526" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B526" t="n">
         <v>640</v>
@@ -50615,7 +50615,7 @@
     </row>
     <row r="527">
       <c r="A527" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B527" t="n">
         <v>663</v>
@@ -50710,7 +50710,7 @@
     </row>
     <row r="528">
       <c r="A528" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B528" t="n">
         <v>160</v>
@@ -50805,7 +50805,7 @@
     </row>
     <row r="529">
       <c r="A529" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B529" t="n">
         <v>208</v>
@@ -50900,7 +50900,7 @@
     </row>
     <row r="530">
       <c r="A530" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B530" t="n">
         <v>209</v>
@@ -50995,7 +50995,7 @@
     </row>
     <row r="531">
       <c r="A531" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B531" t="n">
         <v>198</v>
@@ -51090,7 +51090,7 @@
     </row>
     <row r="532">
       <c r="A532" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B532" t="n">
         <v>358</v>
@@ -51185,7 +51185,7 @@
     </row>
     <row r="533">
       <c r="A533" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B533" t="n">
         <v>677</v>
@@ -51290,7 +51290,7 @@
     </row>
     <row r="534">
       <c r="A534" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B534" t="n">
         <v>267</v>
@@ -51385,7 +51385,7 @@
     </row>
     <row r="535">
       <c r="A535" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B535" t="n">
         <v>582</v>
@@ -51480,7 +51480,7 @@
     </row>
     <row r="536">
       <c r="A536" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B536" t="n">
         <v>102</v>
@@ -51575,7 +51575,7 @@
     </row>
     <row r="537">
       <c r="A537" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B537" t="n">
         <v>326</v>
@@ -51670,7 +51670,7 @@
     </row>
     <row r="538">
       <c r="A538" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B538" t="n">
         <v>327</v>
@@ -51765,7 +51765,7 @@
     </row>
     <row r="539">
       <c r="A539" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B539" t="n">
         <v>581</v>
@@ -51860,7 +51860,7 @@
     </row>
     <row r="540">
       <c r="A540" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B540" t="n">
         <v>692</v>
@@ -51955,7 +51955,7 @@
     </row>
     <row r="541">
       <c r="A541" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B541" t="n">
         <v>328</v>
@@ -52050,7 +52050,7 @@
     </row>
     <row r="542">
       <c r="A542" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B542" t="n">
         <v>101</v>
@@ -52145,7 +52145,7 @@
     </row>
     <row r="543">
       <c r="A543" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B543" t="n">
         <v>329</v>
@@ -52240,7 +52240,7 @@
     </row>
     <row r="544">
       <c r="A544" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B544" t="n">
         <v>580</v>
@@ -52335,7 +52335,7 @@
     </row>
     <row r="545">
       <c r="A545" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B545" t="n">
         <v>325</v>
@@ -52430,7 +52430,7 @@
     </row>
     <row r="546">
       <c r="A546" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B546" t="n">
         <v>100</v>
@@ -52525,7 +52525,7 @@
     </row>
     <row r="547">
       <c r="A547" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B547" t="n">
         <v>331</v>
@@ -52620,7 +52620,7 @@
     </row>
     <row r="548">
       <c r="A548" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B548" t="n">
         <v>579</v>
@@ -52715,7 +52715,7 @@
     </row>
     <row r="549">
       <c r="A549" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B549" t="n">
         <v>693</v>
@@ -52810,7 +52810,7 @@
     </row>
     <row r="550">
       <c r="A550" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B550" t="n">
         <v>332</v>
@@ -52905,7 +52905,7 @@
     </row>
     <row r="551">
       <c r="A551" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B551" t="n">
         <v>99</v>
@@ -53000,7 +53000,7 @@
     </row>
     <row r="552">
       <c r="A552" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B552" t="n">
         <v>333</v>
@@ -53095,7 +53095,7 @@
     </row>
     <row r="553">
       <c r="A553" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B553" t="n">
         <v>578</v>
@@ -53190,7 +53190,7 @@
     </row>
     <row r="554">
       <c r="A554" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B554" t="n">
         <v>98</v>
@@ -53285,7 +53285,7 @@
     </row>
     <row r="555">
       <c r="A555" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B555" t="n">
         <v>334</v>
@@ -53380,7 +53380,7 @@
     </row>
     <row r="556">
       <c r="A556" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B556" t="n">
         <v>335</v>
@@ -53475,7 +53475,7 @@
     </row>
     <row r="557">
       <c r="A557" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B557" t="n">
         <v>330</v>
@@ -53570,7 +53570,7 @@
     </row>
     <row r="558">
       <c r="A558" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B558" t="n">
         <v>103</v>
@@ -53665,7 +53665,7 @@
     </row>
     <row r="559">
       <c r="A559" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B559" t="n">
         <v>324</v>
@@ -53760,7 +53760,7 @@
     </row>
     <row r="560">
       <c r="A560" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B560" t="n">
         <v>691</v>
@@ -53855,7 +53855,7 @@
     </row>
     <row r="561">
       <c r="A561" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B561" t="n">
         <v>588</v>
@@ -53950,7 +53950,7 @@
     </row>
     <row r="562">
       <c r="A562" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B562" t="n">
         <v>108</v>
@@ -54045,7 +54045,7 @@
     </row>
     <row r="563">
       <c r="A563" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B563" t="n">
         <v>314</v>
@@ -54140,7 +54140,7 @@
     </row>
     <row r="564">
       <c r="A564" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B564" t="n">
         <v>315</v>
@@ -54235,7 +54235,7 @@
     </row>
     <row r="565">
       <c r="A565" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B565" t="n">
         <v>587</v>
@@ -54330,7 +54330,7 @@
     </row>
     <row r="566">
       <c r="A566" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B566" t="n">
         <v>689</v>
@@ -54425,7 +54425,7 @@
     </row>
     <row r="567">
       <c r="A567" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B567" t="n">
         <v>316</v>
@@ -54520,7 +54520,7 @@
     </row>
     <row r="568">
       <c r="A568" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B568" t="n">
         <v>107</v>
@@ -54615,7 +54615,7 @@
     </row>
     <row r="569">
       <c r="A569" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B569" t="n">
         <v>317</v>
@@ -54710,7 +54710,7 @@
     </row>
     <row r="570">
       <c r="A570" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B570" t="n">
         <v>586</v>
@@ -54805,7 +54805,7 @@
     </row>
     <row r="571">
       <c r="A571" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B571" t="n">
         <v>106</v>
@@ -54900,7 +54900,7 @@
     </row>
     <row r="572">
       <c r="A572" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B572" t="n">
         <v>318</v>
@@ -54995,7 +54995,7 @@
     </row>
     <row r="573">
       <c r="A573" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B573" t="n">
         <v>319</v>
@@ -55090,7 +55090,7 @@
     </row>
     <row r="574">
       <c r="A574" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B574" t="n">
         <v>585</v>
@@ -55185,7 +55185,7 @@
     </row>
     <row r="575">
       <c r="A575" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B575" t="n">
         <v>690</v>
@@ -55280,7 +55280,7 @@
     </row>
     <row r="576">
       <c r="A576" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B576" t="n">
         <v>320</v>
@@ -55375,7 +55375,7 @@
     </row>
     <row r="577">
       <c r="A577" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B577" t="n">
         <v>105</v>
@@ -55470,7 +55470,7 @@
     </row>
     <row r="578">
       <c r="A578" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B578" t="n">
         <v>321</v>
@@ -55565,7 +55565,7 @@
     </row>
     <row r="579">
       <c r="A579" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B579" t="n">
         <v>584</v>
@@ -55660,7 +55660,7 @@
     </row>
     <row r="580">
       <c r="A580" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B580" t="n">
         <v>104</v>
@@ -55755,7 +55755,7 @@
     </row>
     <row r="581">
       <c r="A581" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B581" t="n">
         <v>322</v>
@@ -55850,7 +55850,7 @@
     </row>
     <row r="582">
       <c r="A582" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B582" t="n">
         <v>323</v>
@@ -55945,7 +55945,7 @@
     </row>
     <row r="583">
       <c r="A583" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B583" t="n">
         <v>583</v>
@@ -56040,7 +56040,7 @@
     </row>
     <row r="584">
       <c r="A584" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B584" t="n">
         <v>577</v>
@@ -56135,7 +56135,7 @@
     </row>
     <row r="585">
       <c r="A585" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B585" t="n">
         <v>313</v>
@@ -56230,7 +56230,7 @@
     </row>
     <row r="586">
       <c r="A586" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B586" t="n">
         <v>694</v>
@@ -56325,7 +56325,7 @@
     </row>
     <row r="587">
       <c r="A587" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B587" t="n">
         <v>336</v>
@@ -56420,7 +56420,7 @@
     </row>
     <row r="588">
       <c r="A588" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B588" t="n">
         <v>348</v>
@@ -56515,7 +56515,7 @@
     </row>
     <row r="589">
       <c r="A589" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B589" t="n">
         <v>349</v>
@@ -56610,7 +56610,7 @@
     </row>
     <row r="590">
       <c r="A590" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B590" t="n">
         <v>570</v>
@@ -56705,7 +56705,7 @@
     </row>
     <row r="591">
       <c r="A591" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B591" t="n">
         <v>697</v>
@@ -56800,7 +56800,7 @@
     </row>
     <row r="592">
       <c r="A592" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B592" t="n">
         <v>350</v>
@@ -56895,7 +56895,7 @@
     </row>
     <row r="593">
       <c r="A593" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B593" t="n">
         <v>90</v>
@@ -56990,7 +56990,7 @@
     </row>
     <row r="594">
       <c r="A594" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B594" t="n">
         <v>351</v>
@@ -57085,7 +57085,7 @@
     </row>
     <row r="595">
       <c r="A595" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B595" t="n">
         <v>569</v>
@@ -57180,7 +57180,7 @@
     </row>
     <row r="596">
       <c r="A596" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B596" t="n">
         <v>89</v>
@@ -57275,7 +57275,7 @@
     </row>
     <row r="597">
       <c r="A597" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B597" t="n">
         <v>352</v>
@@ -57370,7 +57370,7 @@
     </row>
     <row r="598">
       <c r="A598" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B598" t="n">
         <v>91</v>
@@ -57465,7 +57465,7 @@
     </row>
     <row r="599">
       <c r="A599" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B599" t="n">
         <v>353</v>
@@ -57560,7 +57560,7 @@
     </row>
     <row r="600">
       <c r="A600" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B600" t="n">
         <v>698</v>
@@ -57655,7 +57655,7 @@
     </row>
     <row r="601">
       <c r="A601" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B601" t="n">
         <v>354</v>
@@ -57750,7 +57750,7 @@
     </row>
     <row r="602">
       <c r="A602" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B602" t="n">
         <v>88</v>
@@ -57845,7 +57845,7 @@
     </row>
     <row r="603">
       <c r="A603" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B603" t="n">
         <v>355</v>
@@ -57940,7 +57940,7 @@
     </row>
     <row r="604">
       <c r="A604" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B604" t="n">
         <v>567</v>
@@ -58035,7 +58035,7 @@
     </row>
     <row r="605">
       <c r="A605" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B605" t="n">
         <v>87</v>
@@ -58130,7 +58130,7 @@
     </row>
     <row r="606">
       <c r="A606" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B606" t="n">
         <v>356</v>
@@ -58225,7 +58225,7 @@
     </row>
     <row r="607">
       <c r="A607" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B607" t="n">
         <v>4</v>
@@ -58320,7 +58320,7 @@
     </row>
     <row r="608">
       <c r="A608" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B608" t="n">
         <v>357</v>
@@ -58415,7 +58415,7 @@
     </row>
     <row r="609">
       <c r="A609" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B609" t="n">
         <v>566</v>
@@ -58510,7 +58510,7 @@
     </row>
     <row r="610">
       <c r="A610" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B610" t="n">
         <v>568</v>
@@ -58605,7 +58605,7 @@
     </row>
     <row r="611">
       <c r="A611" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B611" t="n">
         <v>571</v>
@@ -58700,7 +58700,7 @@
     </row>
     <row r="612">
       <c r="A612" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B612" t="n">
         <v>347</v>
@@ -58795,7 +58795,7 @@
     </row>
     <row r="613">
       <c r="A613" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B613" t="n">
         <v>14</v>
@@ -58890,7 +58890,7 @@
     </row>
     <row r="614">
       <c r="A614" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B614" t="n">
         <v>337</v>
@@ -58985,7 +58985,7 @@
     </row>
     <row r="615">
       <c r="A615" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B615" t="n">
         <v>576</v>
@@ -59080,7 +59080,7 @@
     </row>
     <row r="616">
       <c r="A616" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B616" t="n">
         <v>96</v>
@@ -59175,7 +59175,7 @@
     </row>
     <row r="617">
       <c r="A617" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B617" t="n">
         <v>338</v>
@@ -59270,7 +59270,7 @@
     </row>
     <row r="618">
       <c r="A618" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B618" t="n">
         <v>5</v>
@@ -59365,7 +59365,7 @@
     </row>
     <row r="619">
       <c r="A619" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B619" t="n">
         <v>339</v>
@@ -59460,7 +59460,7 @@
     </row>
     <row r="620">
       <c r="A620" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B620" t="n">
         <v>575</v>
@@ -59555,7 +59555,7 @@
     </row>
     <row r="621">
       <c r="A621" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B621" t="n">
         <v>695</v>
@@ -59650,7 +59650,7 @@
     </row>
     <row r="622">
       <c r="A622" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B622" t="n">
         <v>340</v>
@@ -59745,7 +59745,7 @@
     </row>
     <row r="623">
       <c r="A623" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B623" t="n">
         <v>95</v>
@@ -59840,7 +59840,7 @@
     </row>
     <row r="624">
       <c r="A624" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B624" t="n">
         <v>341</v>
@@ -59935,7 +59935,7 @@
     </row>
     <row r="625">
       <c r="A625" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B625" t="n">
         <v>574</v>
@@ -60030,7 +60030,7 @@
     </row>
     <row r="626">
       <c r="A626" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B626" t="n">
         <v>94</v>
@@ -60125,7 +60125,7 @@
     </row>
     <row r="627">
       <c r="A627" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B627" t="n">
         <v>342</v>
@@ -60220,7 +60220,7 @@
     </row>
     <row r="628">
       <c r="A628" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B628" t="n">
         <v>343</v>
@@ -60315,7 +60315,7 @@
     </row>
     <row r="629">
       <c r="A629" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B629" t="n">
         <v>573</v>
@@ -60410,7 +60410,7 @@
     </row>
     <row r="630">
       <c r="A630" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B630" t="n">
         <v>93</v>
@@ -60505,7 +60505,7 @@
     </row>
     <row r="631">
       <c r="A631" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B631" t="n">
         <v>344</v>
@@ -60600,7 +60600,7 @@
     </row>
     <row r="632">
       <c r="A632" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B632" t="n">
         <v>345</v>
@@ -60695,7 +60695,7 @@
     </row>
     <row r="633">
       <c r="A633" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B633" t="n">
         <v>572</v>
@@ -60790,7 +60790,7 @@
     </row>
     <row r="634">
       <c r="A634" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B634" t="n">
         <v>696</v>
@@ -60885,7 +60885,7 @@
     </row>
     <row r="635">
       <c r="A635" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B635" t="n">
         <v>92</v>
@@ -60980,7 +60980,7 @@
     </row>
     <row r="636">
       <c r="A636" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B636" t="n">
         <v>346</v>
@@ -61075,7 +61075,7 @@
     </row>
     <row r="637">
       <c r="A637" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B637" t="n">
         <v>739</v>
@@ -61170,7 +61170,7 @@
     </row>
     <row r="638">
       <c r="A638" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B638" t="n">
         <v>131</v>
@@ -61265,7 +61265,7 @@
     </row>
     <row r="639">
       <c r="A639" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B639" t="n">
         <v>109</v>
@@ -61360,7 +61360,7 @@
     </row>
     <row r="640">
       <c r="A640" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B640" t="n">
         <v>688</v>
@@ -61465,7 +61465,7 @@
     </row>
     <row r="641">
       <c r="A641" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B641" t="n">
         <v>125</v>
@@ -61560,7 +61560,7 @@
     </row>
     <row r="642">
       <c r="A642" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B642" t="n">
         <v>280</v>
@@ -61655,7 +61655,7 @@
     </row>
     <row r="643">
       <c r="A643" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B643" t="n">
         <v>604</v>
@@ -61750,7 +61750,7 @@
     </row>
     <row r="644">
       <c r="A644" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B644" t="n">
         <v>124</v>
@@ -61845,7 +61845,7 @@
     </row>
     <row r="645">
       <c r="A645" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B645" t="n">
         <v>281</v>
@@ -61940,7 +61940,7 @@
     </row>
     <row r="646">
       <c r="A646" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B646" t="n">
         <v>282</v>
@@ -62035,7 +62035,7 @@
     </row>
     <row r="647">
       <c r="A647" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B647" t="n">
         <v>603</v>
@@ -62130,7 +62130,7 @@
     </row>
     <row r="648">
       <c r="A648" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B648" t="n">
         <v>738</v>
@@ -62225,7 +62225,7 @@
     </row>
     <row r="649">
       <c r="A649" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B649" t="n">
         <v>681</v>
@@ -62320,7 +62320,7 @@
     </row>
     <row r="650">
       <c r="A650" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B650" t="n">
         <v>283</v>
@@ -62415,7 +62415,7 @@
     </row>
     <row r="651">
       <c r="A651" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B651" t="n">
         <v>279</v>
@@ -62510,7 +62510,7 @@
     </row>
     <row r="652">
       <c r="A652" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B652" t="n">
         <v>123</v>
@@ -62605,7 +62605,7 @@
     </row>
     <row r="653">
       <c r="A653" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B653" t="n">
         <v>602</v>
@@ -62700,7 +62700,7 @@
     </row>
     <row r="654">
       <c r="A654" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B654" t="n">
         <v>122</v>
@@ -62795,7 +62795,7 @@
     </row>
     <row r="655">
       <c r="A655" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B655" t="n">
         <v>285</v>
@@ -62890,7 +62890,7 @@
     </row>
     <row r="656">
       <c r="A656" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B656" t="n">
         <v>7</v>
@@ -62985,7 +62985,7 @@
     </row>
     <row r="657">
       <c r="A657" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B657" t="n">
         <v>286</v>
@@ -63080,7 +63080,7 @@
     </row>
     <row r="658">
       <c r="A658" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B658" t="n">
         <v>601</v>
@@ -63175,7 +63175,7 @@
     </row>
     <row r="659">
       <c r="A659" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B659" t="n">
         <v>735</v>
@@ -63270,7 +63270,7 @@
     </row>
     <row r="660">
       <c r="A660" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B660" t="n">
         <v>287</v>
@@ -63365,7 +63365,7 @@
     </row>
     <row r="661">
       <c r="A661" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B661" t="n">
         <v>682</v>
@@ -63460,7 +63460,7 @@
     </row>
     <row r="662">
       <c r="A662" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B662" t="n">
         <v>288</v>
@@ -63555,7 +63555,7 @@
     </row>
     <row r="663">
       <c r="A663" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B663" t="n">
         <v>284</v>
@@ -63650,7 +63650,7 @@
     </row>
     <row r="664">
       <c r="A664" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B664" t="n">
         <v>680</v>
@@ -63745,7 +63745,7 @@
     </row>
     <row r="665">
       <c r="A665" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B665" t="n">
         <v>605</v>
@@ -63840,7 +63840,7 @@
     </row>
     <row r="666">
       <c r="A666" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B666" t="n">
         <v>278</v>
@@ -63935,7 +63935,7 @@
     </row>
     <row r="667">
       <c r="A667" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B667" t="n">
         <v>268</v>
@@ -64030,7 +64030,7 @@
     </row>
     <row r="668">
       <c r="A668" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B668" t="n">
         <v>610</v>
@@ -64125,7 +64125,7 @@
     </row>
     <row r="669">
       <c r="A669" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B669" t="n">
         <v>130</v>
@@ -64220,7 +64220,7 @@
     </row>
     <row r="670">
       <c r="A670" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B670" t="n">
         <v>269</v>
@@ -64315,7 +64315,7 @@
     </row>
     <row r="671">
       <c r="A671" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B671" t="n">
         <v>270</v>
@@ -64410,7 +64410,7 @@
     </row>
     <row r="672">
       <c r="A672" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B672" t="n">
         <v>609</v>
@@ -64505,7 +64505,7 @@
     </row>
     <row r="673">
       <c r="A673" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B673" t="n">
         <v>678</v>
@@ -64600,7 +64600,7 @@
     </row>
     <row r="674">
       <c r="A674" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B674" t="n">
         <v>129</v>
@@ -64695,7 +64695,7 @@
     </row>
     <row r="675">
       <c r="A675" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B675" t="n">
         <v>271</v>
@@ -64790,7 +64790,7 @@
     </row>
     <row r="676">
       <c r="A676" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B676" t="n">
         <v>272</v>
@@ -64885,7 +64885,7 @@
     </row>
     <row r="677">
       <c r="A677" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B677" t="n">
         <v>608</v>
@@ -64980,7 +64980,7 @@
     </row>
     <row r="678">
       <c r="A678" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B678" t="n">
         <v>128</v>
@@ -65075,7 +65075,7 @@
     </row>
     <row r="679">
       <c r="A679" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B679" t="n">
         <v>273</v>
@@ -65170,7 +65170,7 @@
     </row>
     <row r="680">
       <c r="A680" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B680" t="n">
         <v>274</v>
@@ -65265,7 +65265,7 @@
     </row>
     <row r="681">
       <c r="A681" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B681" t="n">
         <v>607</v>
@@ -65360,7 +65360,7 @@
     </row>
     <row r="682">
       <c r="A682" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B682" t="n">
         <v>679</v>
@@ -65455,7 +65455,7 @@
     </row>
     <row r="683">
       <c r="A683" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B683" t="n">
         <v>13</v>
@@ -65550,7 +65550,7 @@
     </row>
     <row r="684">
       <c r="A684" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B684" t="n">
         <v>275</v>
@@ -65645,7 +65645,7 @@
     </row>
     <row r="685">
       <c r="A685" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B685" t="n">
         <v>127</v>
@@ -65740,7 +65740,7 @@
     </row>
     <row r="686">
       <c r="A686" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B686" t="n">
         <v>276</v>
@@ -65835,7 +65835,7 @@
     </row>
     <row r="687">
       <c r="A687" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B687" t="n">
         <v>606</v>
@@ -65930,7 +65930,7 @@
     </row>
     <row r="688">
       <c r="A688" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B688" t="n">
         <v>126</v>
@@ -66025,7 +66025,7 @@
     </row>
     <row r="689">
       <c r="A689" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B689" t="n">
         <v>277</v>
@@ -66120,7 +66120,7 @@
     </row>
     <row r="690">
       <c r="A690" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B690" t="n">
         <v>600</v>
@@ -66225,7 +66225,7 @@
     </row>
     <row r="691">
       <c r="A691" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B691" t="n">
         <v>312</v>
@@ -66320,7 +66320,7 @@
     </row>
     <row r="692">
       <c r="A692" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B692" t="n">
         <v>121</v>
@@ -66415,7 +66415,7 @@
     </row>
     <row r="693">
       <c r="A693" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B693" t="n">
         <v>120</v>
@@ -66510,7 +66510,7 @@
     </row>
     <row r="694">
       <c r="A694" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B694" t="n">
         <v>302</v>
@@ -66605,7 +66605,7 @@
     </row>
     <row r="695">
       <c r="A695" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B695" t="n">
         <v>593</v>
@@ -66700,7 +66700,7 @@
     </row>
     <row r="696">
       <c r="A696" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B696" t="n">
         <v>303</v>
@@ -66795,7 +66795,7 @@
     </row>
     <row r="697">
       <c r="A697" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B697" t="n">
         <v>6</v>
@@ -66890,7 +66890,7 @@
     </row>
     <row r="698">
       <c r="A698" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B698" t="n">
         <v>686</v>
@@ -66985,7 +66985,7 @@
     </row>
     <row r="699">
       <c r="A699" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B699" t="n">
         <v>304</v>
@@ -67080,7 +67080,7 @@
     </row>
     <row r="700">
       <c r="A700" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B700" t="n">
         <v>592</v>
@@ -67175,7 +67175,7 @@
     </row>
     <row r="701">
       <c r="A701" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B701" t="n">
         <v>113</v>
@@ -67270,7 +67270,7 @@
     </row>
     <row r="702">
       <c r="A702" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B702" t="n">
         <v>305</v>
@@ -67365,7 +67365,7 @@
     </row>
     <row r="703">
       <c r="A703" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B703" t="n">
         <v>112</v>
@@ -67460,7 +67460,7 @@
     </row>
     <row r="704">
       <c r="A704" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B704" t="n">
         <v>114</v>
@@ -67555,7 +67555,7 @@
     </row>
     <row r="705">
       <c r="A705" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B705" t="n">
         <v>306</v>
@@ -67650,7 +67650,7 @@
     </row>
     <row r="706">
       <c r="A706" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B706" t="n">
         <v>307</v>
@@ -67745,7 +67745,7 @@
     </row>
     <row r="707">
       <c r="A707" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B707" t="n">
         <v>687</v>
@@ -67840,7 +67840,7 @@
     </row>
     <row r="708">
       <c r="A708" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B708" t="n">
         <v>308</v>
@@ -67935,7 +67935,7 @@
     </row>
     <row r="709">
       <c r="A709" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B709" t="n">
         <v>590</v>
@@ -68030,7 +68030,7 @@
     </row>
     <row r="710">
       <c r="A710" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B710" t="n">
         <v>111</v>
@@ -68125,7 +68125,7 @@
     </row>
     <row r="711">
       <c r="A711" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B711" t="n">
         <v>309</v>
@@ -68220,7 +68220,7 @@
     </row>
     <row r="712">
       <c r="A712" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B712" t="n">
         <v>110</v>
@@ -68315,7 +68315,7 @@
     </row>
     <row r="713">
       <c r="A713" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B713" t="n">
         <v>310</v>
@@ -68410,7 +68410,7 @@
     </row>
     <row r="714">
       <c r="A714" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B714" t="n">
         <v>589</v>
@@ -68505,7 +68505,7 @@
     </row>
     <row r="715">
       <c r="A715" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B715" t="n">
         <v>311</v>
@@ -68600,7 +68600,7 @@
     </row>
     <row r="716">
       <c r="A716" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B716" t="n">
         <v>591</v>
@@ -68695,7 +68695,7 @@
     </row>
     <row r="717">
       <c r="A717" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B717" t="n">
         <v>301</v>
@@ -68790,7 +68790,7 @@
     </row>
     <row r="718">
       <c r="A718" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B718" t="n">
         <v>115</v>
@@ -68885,7 +68885,7 @@
     </row>
     <row r="719">
       <c r="A719" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B719" t="n">
         <v>594</v>
@@ -68980,7 +68980,7 @@
     </row>
     <row r="720">
       <c r="A720" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B720" t="n">
         <v>290</v>
@@ -69075,7 +69075,7 @@
     </row>
     <row r="721">
       <c r="A721" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B721" t="n">
         <v>599</v>
@@ -69170,7 +69170,7 @@
     </row>
     <row r="722">
       <c r="A722" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B722" t="n">
         <v>291</v>
@@ -69265,7 +69265,7 @@
     </row>
     <row r="723">
       <c r="A723" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B723" t="n">
         <v>683</v>
@@ -69360,7 +69360,7 @@
     </row>
     <row r="724">
       <c r="A724" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B724" t="n">
         <v>292</v>
@@ -69455,7 +69455,7 @@
     </row>
     <row r="725">
       <c r="A725" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B725" t="n">
         <v>598</v>
@@ -69550,7 +69550,7 @@
     </row>
     <row r="726">
       <c r="A726" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B726" t="n">
         <v>119</v>
@@ -69645,7 +69645,7 @@
     </row>
     <row r="727">
       <c r="A727" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B727" t="n">
         <v>293</v>
@@ -69740,7 +69740,7 @@
     </row>
     <row r="728">
       <c r="A728" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B728" t="n">
         <v>118</v>
@@ -69835,7 +69835,7 @@
     </row>
     <row r="729">
       <c r="A729" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B729" t="n">
         <v>294</v>
@@ -69930,7 +69930,7 @@
     </row>
     <row r="730">
       <c r="A730" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B730" t="n">
         <v>597</v>
@@ -70025,7 +70025,7 @@
     </row>
     <row r="731">
       <c r="A731" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B731" t="n">
         <v>295</v>
@@ -70120,7 +70120,7 @@
     </row>
     <row r="732">
       <c r="A732" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B732" t="n">
         <v>684</v>
@@ -70215,7 +70215,7 @@
     </row>
     <row r="733">
       <c r="A733" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B733" t="n">
         <v>296</v>
@@ -70310,7 +70310,7 @@
     </row>
     <row r="734">
       <c r="A734" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B734" t="n">
         <v>596</v>
@@ -70405,7 +70405,7 @@
     </row>
     <row r="735">
       <c r="A735" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B735" t="n">
         <v>117</v>
@@ -70500,7 +70500,7 @@
     </row>
     <row r="736">
       <c r="A736" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B736" t="n">
         <v>297</v>
@@ -70595,7 +70595,7 @@
     </row>
     <row r="737">
       <c r="A737" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B737" t="n">
         <v>116</v>
@@ -70690,7 +70690,7 @@
     </row>
     <row r="738">
       <c r="A738" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B738" t="n">
         <v>298</v>
@@ -70785,7 +70785,7 @@
     </row>
     <row r="739">
       <c r="A739" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B739" t="n">
         <v>595</v>
@@ -70880,7 +70880,7 @@
     </row>
     <row r="740">
       <c r="A740" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B740" t="n">
         <v>299</v>
@@ -70975,7 +70975,7 @@
     </row>
     <row r="741">
       <c r="A741" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B741" t="n">
         <v>685</v>
@@ -71070,7 +71070,7 @@
     </row>
     <row r="742">
       <c r="A742" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B742" t="n">
         <v>300</v>
@@ -71165,7 +71165,7 @@
     </row>
     <row r="743">
       <c r="A743" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B743" t="n">
         <v>289</v>
@@ -71260,7 +71260,7 @@
     </row>
     <row r="744">
       <c r="A744" s="2" t="n">
-        <v>46014.35696155093</v>
+        <v>46014.47270674769</v>
       </c>
       <c r="B744" t="n">
         <v>742</v>

--- a/latest_rows_df.xlsx
+++ b/latest_rows_df.xlsx
@@ -660,7 +660,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B2" t="n">
         <v>62</v>
@@ -755,7 +755,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B3" t="n">
         <v>408</v>
@@ -850,7 +850,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B4" t="n">
         <v>63</v>
@@ -945,7 +945,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B5" t="n">
         <v>544</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B6" t="n">
         <v>547</v>
@@ -1135,7 +1135,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B7" t="n">
         <v>399</v>
@@ -1230,7 +1230,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B8" t="n">
         <v>402</v>
@@ -1325,7 +1325,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B9" t="n">
         <v>709</v>
@@ -1420,7 +1420,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B10" t="n">
         <v>541</v>
@@ -1515,7 +1515,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B11" t="n">
         <v>66</v>
@@ -1610,7 +1610,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B12" t="n">
         <v>67</v>
@@ -1705,7 +1705,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B13" t="n">
         <v>407</v>
@@ -1800,7 +1800,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B14" t="n">
         <v>406</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B15" t="n">
         <v>398</v>
@@ -1990,7 +1990,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B16" t="n">
         <v>542</v>
@@ -2085,7 +2085,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B17" t="n">
         <v>404</v>
@@ -2180,7 +2180,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B18" t="n">
         <v>65</v>
@@ -2275,7 +2275,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B19" t="n">
         <v>64</v>
@@ -2370,7 +2370,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B20" t="n">
         <v>543</v>
@@ -2465,7 +2465,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B21" t="n">
         <v>545</v>
@@ -2560,7 +2560,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B22" t="n">
         <v>711</v>
@@ -2655,7 +2655,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B23" t="n">
         <v>403</v>
@@ -2750,7 +2750,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B24" t="n">
         <v>710</v>
@@ -2845,7 +2845,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B25" t="n">
         <v>397</v>
@@ -2940,7 +2940,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B26" t="n">
         <v>546</v>
@@ -3035,7 +3035,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B27" t="n">
         <v>400</v>
@@ -3130,7 +3130,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B28" t="n">
         <v>401</v>
@@ -3225,7 +3225,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B29" t="n">
         <v>405</v>
@@ -3320,7 +3320,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B30" t="n">
         <v>176</v>
@@ -3415,7 +3415,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B31" t="n">
         <v>68</v>
@@ -3510,7 +3510,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B32" t="n">
         <v>369</v>
@@ -3605,7 +3605,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B33" t="n">
         <v>370</v>
@@ -3700,7 +3700,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B34" t="n">
         <v>702</v>
@@ -3795,7 +3795,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B35" t="n">
         <v>560</v>
@@ -3890,7 +3890,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B36" t="n">
         <v>80</v>
@@ -3985,7 +3985,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B37" t="n">
         <v>371</v>
@@ -4080,7 +4080,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B38" t="n">
         <v>79</v>
@@ -4175,7 +4175,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B39" t="n">
         <v>372</v>
@@ -4270,7 +4270,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B40" t="n">
         <v>81</v>
@@ -4365,7 +4365,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B41" t="n">
         <v>559</v>
@@ -4460,7 +4460,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B42" t="n">
         <v>703</v>
@@ -4555,7 +4555,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B43" t="n">
         <v>374</v>
@@ -4650,7 +4650,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B44" t="n">
         <v>558</v>
@@ -4755,7 +4755,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B45" t="n">
         <v>78</v>
@@ -4850,7 +4850,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B46" t="n">
         <v>375</v>
@@ -4945,7 +4945,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B47" t="n">
         <v>77</v>
@@ -5040,7 +5040,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B48" t="n">
         <v>376</v>
@@ -5135,7 +5135,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B49" t="n">
         <v>373</v>
@@ -5230,7 +5230,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B50" t="n">
         <v>557</v>
@@ -5325,7 +5325,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B51" t="n">
         <v>561</v>
@@ -5420,7 +5420,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B52" t="n">
         <v>367</v>
@@ -5515,7 +5515,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B53" t="n">
         <v>359</v>
@@ -5610,7 +5610,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B54" t="n">
         <v>565</v>
@@ -5705,7 +5705,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B55" t="n">
         <v>85</v>
@@ -5800,7 +5800,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B56" t="n">
         <v>360</v>
@@ -5895,7 +5895,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B57" t="n">
         <v>361</v>
@@ -5990,7 +5990,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B58" t="n">
         <v>564</v>
@@ -6085,7 +6085,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B59" t="n">
         <v>700</v>
@@ -6180,7 +6180,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B60" t="n">
         <v>362</v>
@@ -6275,7 +6275,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B61" t="n">
         <v>368</v>
@@ -6370,7 +6370,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B62" t="n">
         <v>84</v>
@@ -6465,7 +6465,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B63" t="n">
         <v>563</v>
@@ -6560,7 +6560,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B64" t="n">
         <v>83</v>
@@ -6655,7 +6655,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B65" t="n">
         <v>364</v>
@@ -6750,7 +6750,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B66" t="n">
         <v>365</v>
@@ -6845,7 +6845,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B67" t="n">
         <v>366</v>
@@ -6940,7 +6940,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B68" t="n">
         <v>562</v>
@@ -7035,7 +7035,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B69" t="n">
         <v>701</v>
@@ -7130,7 +7130,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B70" t="n">
         <v>82</v>
@@ -7225,7 +7225,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B71" t="n">
         <v>363</v>
@@ -7320,7 +7320,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B72" t="n">
         <v>377</v>
@@ -7415,7 +7415,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B73" t="n">
         <v>704</v>
@@ -7510,7 +7510,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B74" t="n">
         <v>378</v>
@@ -7605,7 +7605,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B75" t="n">
         <v>71</v>
@@ -7700,7 +7700,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B76" t="n">
         <v>740</v>
@@ -7795,7 +7795,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B77" t="n">
         <v>389</v>
@@ -7890,7 +7890,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B78" t="n">
         <v>390</v>
@@ -7985,7 +7985,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B79" t="n">
         <v>550</v>
@@ -8080,7 +8080,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B80" t="n">
         <v>707</v>
@@ -8175,7 +8175,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B81" t="n">
         <v>70</v>
@@ -8270,7 +8270,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B82" t="n">
         <v>3</v>
@@ -8365,7 +8365,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B83" t="n">
         <v>551</v>
@@ -8460,7 +8460,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B84" t="n">
         <v>391</v>
@@ -8555,7 +8555,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B85" t="n">
         <v>549</v>
@@ -8650,7 +8650,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B86" t="n">
         <v>69</v>
@@ -8745,7 +8745,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B87" t="n">
         <v>393</v>
@@ -8840,7 +8840,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B88" t="n">
         <v>394</v>
@@ -8935,7 +8935,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B89" t="n">
         <v>548</v>
@@ -9030,7 +9030,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B90" t="n">
         <v>708</v>
@@ -9125,7 +9125,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B91" t="n">
         <v>734</v>
@@ -9220,7 +9220,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B92" t="n">
         <v>395</v>
@@ -9315,7 +9315,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B93" t="n">
         <v>392</v>
@@ -9410,7 +9410,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B94" t="n">
         <v>388</v>
@@ -9505,7 +9505,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B95" t="n">
         <v>387</v>
@@ -9600,7 +9600,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B96" t="n">
         <v>72</v>
@@ -9695,7 +9695,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B97" t="n">
         <v>556</v>
@@ -9790,7 +9790,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B98" t="n">
         <v>76</v>
@@ -9885,7 +9885,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B99" t="n">
         <v>379</v>
@@ -9980,7 +9980,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B100" t="n">
         <v>75</v>
@@ -10075,7 +10075,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B101" t="n">
         <v>380</v>
@@ -10170,7 +10170,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B102" t="n">
         <v>555</v>
@@ -10265,7 +10265,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B103" t="n">
         <v>381</v>
@@ -10360,7 +10360,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B104" t="n">
         <v>705</v>
@@ -10455,7 +10455,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B105" t="n">
         <v>382</v>
@@ -10550,7 +10550,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B106" t="n">
         <v>554</v>
@@ -10645,7 +10645,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B107" t="n">
         <v>15</v>
@@ -10740,7 +10740,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B108" t="n">
         <v>74</v>
@@ -10835,7 +10835,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B109" t="n">
         <v>383</v>
@@ -10930,7 +10930,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B110" t="n">
         <v>553</v>
@@ -11025,7 +11025,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B111" t="n">
         <v>73</v>
@@ -11120,7 +11120,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B112" t="n">
         <v>385</v>
@@ -11215,7 +11215,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B113" t="n">
         <v>386</v>
@@ -11310,7 +11310,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B114" t="n">
         <v>552</v>
@@ -11405,7 +11405,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B115" t="n">
         <v>706</v>
@@ -11500,7 +11500,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B116" t="n">
         <v>396</v>
@@ -11595,7 +11595,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B117" t="n">
         <v>384</v>
@@ -11690,7 +11690,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B118" t="n">
         <v>532</v>
@@ -11785,7 +11785,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B119" t="n">
         <v>61</v>
@@ -11880,7 +11880,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B120" t="n">
         <v>465</v>
@@ -11975,7 +11975,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B121" t="n">
         <v>513</v>
@@ -12070,7 +12070,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B122" t="n">
         <v>33</v>
@@ -12165,7 +12165,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B123" t="n">
         <v>466</v>
@@ -12260,7 +12260,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B124" t="n">
         <v>32</v>
@@ -12355,7 +12355,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B125" t="n">
         <v>467</v>
@@ -12450,7 +12450,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B126" t="n">
         <v>512</v>
@@ -12545,7 +12545,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B127" t="n">
         <v>468</v>
@@ -12640,7 +12640,7 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B128" t="n">
         <v>726</v>
@@ -12735,7 +12735,7 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B129" t="n">
         <v>469</v>
@@ -12830,7 +12830,7 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B130" t="n">
         <v>511</v>
@@ -12925,7 +12925,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B131" t="n">
         <v>31</v>
@@ -13020,7 +13020,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B132" t="n">
         <v>470</v>
@@ -13115,7 +13115,7 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B133" t="n">
         <v>30</v>
@@ -13210,7 +13210,7 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B134" t="n">
         <v>471</v>
@@ -13305,7 +13305,7 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B135" t="n">
         <v>510</v>
@@ -13400,7 +13400,7 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B136" t="n">
         <v>472</v>
@@ -13495,7 +13495,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B137" t="n">
         <v>727</v>
@@ -13590,7 +13590,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B138" t="n">
         <v>473</v>
@@ -13685,7 +13685,7 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B139" t="n">
         <v>509</v>
@@ -13780,7 +13780,7 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B140" t="n">
         <v>29</v>
@@ -13875,7 +13875,7 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B141" t="n">
         <v>725</v>
@@ -13970,7 +13970,7 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B142" t="n">
         <v>474</v>
@@ -14065,7 +14065,7 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B143" t="n">
         <v>464</v>
@@ -14160,7 +14160,7 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B144" t="n">
         <v>463</v>
@@ -14255,7 +14255,7 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B145" t="n">
         <v>454</v>
@@ -14350,7 +14350,7 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B146" t="n">
         <v>38</v>
@@ -14445,7 +14445,7 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B147" t="n">
         <v>455</v>
@@ -14540,7 +14540,7 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B148" t="n">
         <v>518</v>
@@ -14635,7 +14635,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B149" t="n">
         <v>456</v>
@@ -14730,7 +14730,7 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B150" t="n">
         <v>723</v>
@@ -14825,7 +14825,7 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B151" t="n">
         <v>457</v>
@@ -14930,7 +14930,7 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B152" t="n">
         <v>517</v>
@@ -15025,7 +15025,7 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B153" t="n">
         <v>37</v>
@@ -15120,7 +15120,7 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B154" t="n">
         <v>458</v>
@@ -15215,7 +15215,7 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B155" t="n">
         <v>36</v>
@@ -15310,7 +15310,7 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B156" t="n">
         <v>459</v>
@@ -15405,7 +15405,7 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B157" t="n">
         <v>516</v>
@@ -15500,7 +15500,7 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B158" t="n">
         <v>460</v>
@@ -15595,7 +15595,7 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B159" t="n">
         <v>724</v>
@@ -15690,7 +15690,7 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B160" t="n">
         <v>461</v>
@@ -15785,7 +15785,7 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B161" t="n">
         <v>515</v>
@@ -15880,7 +15880,7 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B162" t="n">
         <v>35</v>
@@ -15975,7 +15975,7 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B163" t="n">
         <v>0</v>
@@ -16070,7 +16070,7 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B164" t="n">
         <v>462</v>
@@ -16165,7 +16165,7 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B165" t="n">
         <v>34</v>
@@ -16260,7 +16260,7 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B166" t="n">
         <v>514</v>
@@ -16355,7 +16355,7 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B167" t="n">
         <v>28</v>
@@ -16450,7 +16450,7 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B168" t="n">
         <v>475</v>
@@ -16555,7 +16555,7 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B169" t="n">
         <v>508</v>
@@ -16650,7 +16650,7 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B170" t="n">
         <v>488</v>
@@ -16745,7 +16745,7 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B171" t="n">
         <v>502</v>
@@ -16840,7 +16840,7 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B172" t="n">
         <v>731</v>
@@ -16935,7 +16935,7 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B173" t="n">
         <v>489</v>
@@ -17030,7 +17030,7 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B174" t="n">
         <v>17</v>
@@ -17125,7 +17125,7 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B175" t="n">
         <v>490</v>
@@ -17220,7 +17220,7 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B176" t="n">
         <v>501</v>
@@ -17315,7 +17315,7 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B177" t="n">
         <v>21</v>
@@ -17410,7 +17410,7 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B178" t="n">
         <v>491</v>
@@ -17505,7 +17505,7 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B179" t="n">
         <v>20</v>
@@ -17600,7 +17600,7 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B180" t="n">
         <v>492</v>
@@ -17695,7 +17695,7 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B181" t="n">
         <v>500</v>
@@ -17790,7 +17790,7 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B182" t="n">
         <v>493</v>
@@ -17885,7 +17885,7 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B183" t="n">
         <v>732</v>
@@ -17980,7 +17980,7 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B184" t="n">
         <v>494</v>
@@ -18075,7 +18075,7 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B185" t="n">
         <v>499</v>
@@ -18170,7 +18170,7 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B186" t="n">
         <v>19</v>
@@ -18265,7 +18265,7 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B187" t="n">
         <v>495</v>
@@ -18360,7 +18360,7 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B188" t="n">
         <v>18</v>
@@ -18455,7 +18455,7 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B189" t="n">
         <v>496</v>
@@ -18550,7 +18550,7 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B190" t="n">
         <v>498</v>
@@ -18645,7 +18645,7 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B191" t="n">
         <v>487</v>
@@ -18740,7 +18740,7 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B192" t="n">
         <v>22</v>
@@ -18835,7 +18835,7 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B193" t="n">
         <v>503</v>
@@ -18930,7 +18930,7 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B194" t="n">
         <v>486</v>
@@ -19025,7 +19025,7 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B195" t="n">
         <v>476</v>
@@ -19120,7 +19120,7 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B196" t="n">
         <v>728</v>
@@ -19215,7 +19215,7 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B197" t="n">
         <v>477</v>
@@ -19310,7 +19310,7 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B198" t="n">
         <v>507</v>
@@ -19405,7 +19405,7 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B199" t="n">
         <v>27</v>
@@ -19500,7 +19500,7 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B200" t="n">
         <v>478</v>
@@ -19595,7 +19595,7 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B201" t="n">
         <v>26</v>
@@ -19690,7 +19690,7 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B202" t="n">
         <v>479</v>
@@ -19785,7 +19785,7 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B203" t="n">
         <v>506</v>
@@ -19880,7 +19880,7 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B204" t="n">
         <v>480</v>
@@ -19975,7 +19975,7 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B205" t="n">
         <v>16</v>
@@ -20070,7 +20070,7 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B206" t="n">
         <v>729</v>
@@ -20165,7 +20165,7 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B207" t="n">
         <v>25</v>
@@ -20260,7 +20260,7 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B208" t="n">
         <v>505</v>
@@ -20355,7 +20355,7 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B209" t="n">
         <v>482</v>
@@ -20450,7 +20450,7 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B210" t="n">
         <v>24</v>
@@ -20545,7 +20545,7 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B211" t="n">
         <v>483</v>
@@ -20640,7 +20640,7 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B212" t="n">
         <v>484</v>
@@ -20735,7 +20735,7 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B213" t="n">
         <v>504</v>
@@ -20830,7 +20830,7 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B214" t="n">
         <v>730</v>
@@ -20925,7 +20925,7 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B215" t="n">
         <v>485</v>
@@ -21020,7 +21020,7 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B216" t="n">
         <v>23</v>
@@ -21115,7 +21115,7 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B217" t="n">
         <v>481</v>
@@ -21210,7 +21210,7 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B218" t="n">
         <v>519</v>
@@ -21305,7 +21305,7 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B219" t="n">
         <v>453</v>
@@ -21400,7 +21400,7 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B220" t="n">
         <v>39</v>
@@ -21495,7 +21495,7 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B221" t="n">
         <v>535</v>
@@ -21590,7 +21590,7 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B222" t="n">
         <v>55</v>
@@ -21685,7 +21685,7 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B223" t="n">
         <v>422</v>
@@ -21780,7 +21780,7 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B224" t="n">
         <v>715</v>
@@ -21875,7 +21875,7 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B225" t="n">
         <v>423</v>
@@ -21970,7 +21970,7 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B226" t="n">
         <v>534</v>
@@ -22065,7 +22065,7 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B227" t="n">
         <v>54</v>
@@ -22160,7 +22160,7 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B228" t="n">
         <v>424</v>
@@ -22255,7 +22255,7 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B229" t="n">
         <v>53</v>
@@ -22350,7 +22350,7 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B230" t="n">
         <v>425</v>
@@ -22445,7 +22445,7 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B231" t="n">
         <v>533</v>
@@ -22540,7 +22540,7 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B232" t="n">
         <v>426</v>
@@ -22635,7 +22635,7 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B233" t="n">
         <v>716</v>
@@ -22730,7 +22730,7 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B234" t="n">
         <v>427</v>
@@ -22825,7 +22825,7 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B235" t="n">
         <v>52</v>
@@ -22920,7 +22920,7 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B236" t="n">
         <v>428</v>
@@ -23015,7 +23015,7 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B237" t="n">
         <v>51</v>
@@ -23110,7 +23110,7 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B238" t="n">
         <v>429</v>
@@ -23205,7 +23205,7 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B239" t="n">
         <v>531</v>
@@ -23300,7 +23300,7 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B240" t="n">
         <v>50</v>
@@ -23395,7 +23395,7 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B241" t="n">
         <v>430</v>
@@ -23490,7 +23490,7 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B242" t="n">
         <v>421</v>
@@ -23585,7 +23585,7 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B243" t="n">
         <v>420</v>
@@ -23680,7 +23680,7 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B244" t="n">
         <v>56</v>
@@ -23775,7 +23775,7 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B245" t="n">
         <v>714</v>
@@ -23870,7 +23870,7 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B246" t="n">
         <v>409</v>
@@ -23965,7 +23965,7 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B247" t="n">
         <v>410</v>
@@ -24060,7 +24060,7 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B248" t="n">
         <v>540</v>
@@ -24155,7 +24155,7 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B249" t="n">
         <v>712</v>
@@ -24250,7 +24250,7 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B250" t="n">
         <v>411</v>
@@ -24355,7 +24355,7 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B251" t="n">
         <v>60</v>
@@ -24450,7 +24450,7 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B252" t="n">
         <v>412</v>
@@ -24545,7 +24545,7 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B253" t="n">
         <v>539</v>
@@ -24640,7 +24640,7 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B254" t="n">
         <v>59</v>
@@ -24735,7 +24735,7 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B255" t="n">
         <v>413</v>
@@ -24830,7 +24830,7 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B256" t="n">
         <v>431</v>
@@ -24925,7 +24925,7 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B257" t="n">
         <v>414</v>
@@ -25020,7 +25020,7 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B258" t="n">
         <v>538</v>
@@ -25125,7 +25125,7 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B259" t="n">
         <v>713</v>
@@ -25220,7 +25220,7 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B260" t="n">
         <v>58</v>
@@ -25315,7 +25315,7 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B261" t="n">
         <v>416</v>
@@ -25410,7 +25410,7 @@
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B262" t="n">
         <v>417</v>
@@ -25505,7 +25505,7 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B263" t="n">
         <v>537</v>
@@ -25600,7 +25600,7 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B264" t="n">
         <v>57</v>
@@ -25695,7 +25695,7 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B265" t="n">
         <v>418</v>
@@ -25790,7 +25790,7 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B266" t="n">
         <v>419</v>
@@ -25885,7 +25885,7 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B267" t="n">
         <v>536</v>
@@ -25980,7 +25980,7 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B268" t="n">
         <v>415</v>
@@ -26075,7 +26075,7 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B269" t="n">
         <v>2</v>
@@ -26170,7 +26170,7 @@
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B270" t="n">
         <v>530</v>
@@ -26265,7 +26265,7 @@
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B271" t="n">
         <v>432</v>
@@ -26360,7 +26360,7 @@
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B272" t="n">
         <v>720</v>
@@ -26455,7 +26455,7 @@
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B273" t="n">
         <v>1</v>
@@ -26550,7 +26550,7 @@
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B274" t="n">
         <v>444</v>
@@ -26645,7 +26645,7 @@
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B275" t="n">
         <v>43</v>
@@ -26740,7 +26740,7 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B276" t="n">
         <v>445</v>
@@ -26835,7 +26835,7 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B277" t="n">
         <v>523</v>
@@ -26930,7 +26930,7 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B278" t="n">
         <v>42</v>
@@ -27025,7 +27025,7 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B279" t="n">
         <v>446</v>
@@ -27120,7 +27120,7 @@
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B280" t="n">
         <v>447</v>
@@ -27215,7 +27215,7 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B281" t="n">
         <v>522</v>
@@ -27310,7 +27310,7 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B282" t="n">
         <v>721</v>
@@ -27405,7 +27405,7 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B283" t="n">
         <v>448</v>
@@ -27500,7 +27500,7 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B284" t="n">
         <v>41</v>
@@ -27595,7 +27595,7 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B285" t="n">
         <v>449</v>
@@ -27690,7 +27690,7 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B286" t="n">
         <v>521</v>
@@ -27785,7 +27785,7 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B287" t="n">
         <v>40</v>
@@ -27880,7 +27880,7 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B288" t="n">
         <v>450</v>
@@ -27985,7 +27985,7 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B289" t="n">
         <v>451</v>
@@ -28080,7 +28080,7 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B290" t="n">
         <v>520</v>
@@ -28175,7 +28175,7 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B291" t="n">
         <v>722</v>
@@ -28270,7 +28270,7 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B292" t="n">
         <v>452</v>
@@ -28365,7 +28365,7 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B293" t="n">
         <v>741</v>
@@ -28460,7 +28460,7 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B294" t="n">
         <v>524</v>
@@ -28555,7 +28555,7 @@
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B295" t="n">
         <v>443</v>
@@ -28660,7 +28660,7 @@
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B296" t="n">
         <v>442</v>
@@ -28755,7 +28755,7 @@
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B297" t="n">
         <v>49</v>
@@ -28850,7 +28850,7 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B298" t="n">
         <v>433</v>
@@ -28945,7 +28945,7 @@
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B299" t="n">
         <v>529</v>
@@ -29040,7 +29040,7 @@
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B300" t="n">
         <v>48</v>
@@ -29135,7 +29135,7 @@
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B301" t="n">
         <v>434</v>
@@ -29230,7 +29230,7 @@
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B302" t="n">
         <v>435</v>
@@ -29325,7 +29325,7 @@
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B303" t="n">
         <v>528</v>
@@ -29420,7 +29420,7 @@
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B304" t="n">
         <v>718</v>
@@ -29515,7 +29515,7 @@
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B305" t="n">
         <v>436</v>
@@ -29610,7 +29610,7 @@
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B306" t="n">
         <v>47</v>
@@ -29705,7 +29705,7 @@
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B307" t="n">
         <v>717</v>
@@ -29800,7 +29800,7 @@
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B308" t="n">
         <v>437</v>
@@ -29895,7 +29895,7 @@
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B309" t="n">
         <v>46</v>
@@ -29990,7 +29990,7 @@
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B310" t="n">
         <v>438</v>
@@ -30085,7 +30085,7 @@
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B311" t="n">
         <v>439</v>
@@ -30190,7 +30190,7 @@
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B312" t="n">
         <v>526</v>
@@ -30285,7 +30285,7 @@
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B313" t="n">
         <v>719</v>
@@ -30380,7 +30380,7 @@
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B314" t="n">
         <v>440</v>
@@ -30475,7 +30475,7 @@
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B315" t="n">
         <v>45</v>
@@ -30570,7 +30570,7 @@
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B316" t="n">
         <v>441</v>
@@ -30665,7 +30665,7 @@
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B317" t="n">
         <v>525</v>
@@ -30760,7 +30760,7 @@
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B318" t="n">
         <v>44</v>
@@ -30855,7 +30855,7 @@
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B319" t="n">
         <v>527</v>
@@ -30950,7 +30950,7 @@
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B320" t="n">
         <v>86</v>
@@ -31045,7 +31045,7 @@
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B321" t="n">
         <v>97</v>
@@ -31140,7 +31140,7 @@
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B322" t="n">
         <v>699</v>
@@ -31235,7 +31235,7 @@
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B323" t="n">
         <v>147</v>
@@ -31330,7 +31330,7 @@
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B324" t="n">
         <v>234</v>
@@ -31425,7 +31425,7 @@
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B325" t="n">
         <v>235</v>
@@ -31520,7 +31520,7 @@
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B326" t="n">
         <v>626</v>
@@ -31615,7 +31615,7 @@
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B327" t="n">
         <v>670</v>
@@ -31710,7 +31710,7 @@
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B328" t="n">
         <v>146</v>
@@ -31805,7 +31805,7 @@
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B329" t="n">
         <v>236</v>
@@ -31900,7 +31900,7 @@
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B330" t="n">
         <v>237</v>
@@ -31995,7 +31995,7 @@
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B331" t="n">
         <v>625</v>
@@ -32090,7 +32090,7 @@
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B332" t="n">
         <v>145</v>
@@ -32185,7 +32185,7 @@
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B333" t="n">
         <v>627</v>
@@ -32280,7 +32280,7 @@
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B334" t="n">
         <v>12</v>
@@ -32375,7 +32375,7 @@
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B335" t="n">
         <v>239</v>
@@ -32470,7 +32470,7 @@
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B336" t="n">
         <v>624</v>
@@ -32565,7 +32565,7 @@
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B337" t="n">
         <v>144</v>
@@ -32660,7 +32660,7 @@
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B338" t="n">
         <v>240</v>
@@ -32755,7 +32755,7 @@
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B339" t="n">
         <v>241</v>
@@ -32850,7 +32850,7 @@
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B340" t="n">
         <v>623</v>
@@ -32945,7 +32945,7 @@
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B341" t="n">
         <v>671</v>
@@ -33040,7 +33040,7 @@
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B342" t="n">
         <v>143</v>
@@ -33135,7 +33135,7 @@
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B343" t="n">
         <v>242</v>
@@ -33230,7 +33230,7 @@
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B344" t="n">
         <v>243</v>
@@ -33325,7 +33325,7 @@
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B345" t="n">
         <v>238</v>
@@ -33420,7 +33420,7 @@
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B346" t="n">
         <v>9</v>
@@ -33515,7 +33515,7 @@
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B347" t="n">
         <v>233</v>
@@ -33610,7 +33610,7 @@
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B348" t="n">
         <v>232</v>
@@ -33705,7 +33705,7 @@
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B349" t="n">
         <v>223</v>
@@ -33800,7 +33800,7 @@
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B350" t="n">
         <v>632</v>
@@ -33895,7 +33895,7 @@
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B351" t="n">
         <v>667</v>
@@ -33990,7 +33990,7 @@
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B352" t="n">
         <v>152</v>
@@ -34085,7 +34085,7 @@
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B353" t="n">
         <v>224</v>
@@ -34180,7 +34180,7 @@
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B354" t="n">
         <v>225</v>
@@ -34275,7 +34275,7 @@
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B355" t="n">
         <v>631</v>
@@ -34370,7 +34370,7 @@
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B356" t="n">
         <v>151</v>
@@ -34465,7 +34465,7 @@
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B357" t="n">
         <v>226</v>
@@ -34560,7 +34560,7 @@
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B358" t="n">
         <v>227</v>
@@ -34655,7 +34655,7 @@
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B359" t="n">
         <v>630</v>
@@ -34750,7 +34750,7 @@
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B360" t="n">
         <v>668</v>
@@ -34845,7 +34845,7 @@
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B361" t="n">
         <v>150</v>
@@ -34940,7 +34940,7 @@
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B362" t="n">
         <v>228</v>
@@ -35035,7 +35035,7 @@
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B363" t="n">
         <v>229</v>
@@ -35130,7 +35130,7 @@
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B364" t="n">
         <v>737</v>
@@ -35225,7 +35225,7 @@
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B365" t="n">
         <v>629</v>
@@ -35320,7 +35320,7 @@
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B366" t="n">
         <v>149</v>
@@ -35415,7 +35415,7 @@
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B367" t="n">
         <v>230</v>
@@ -35510,7 +35510,7 @@
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B368" t="n">
         <v>231</v>
@@ -35605,7 +35605,7 @@
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B369" t="n">
         <v>628</v>
@@ -35700,7 +35700,7 @@
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B370" t="n">
         <v>669</v>
@@ -35795,7 +35795,7 @@
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B371" t="n">
         <v>148</v>
@@ -35890,7 +35890,7 @@
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B372" t="n">
         <v>622</v>
@@ -35985,7 +35985,7 @@
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B373" t="n">
         <v>222</v>
@@ -36080,7 +36080,7 @@
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B374" t="n">
         <v>142</v>
@@ -36175,7 +36175,7 @@
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B375" t="n">
         <v>245</v>
@@ -36270,7 +36270,7 @@
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B376" t="n">
         <v>256</v>
@@ -36365,7 +36365,7 @@
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B377" t="n">
         <v>257</v>
@@ -36460,7 +36460,7 @@
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B378" t="n">
         <v>733</v>
@@ -36555,7 +36555,7 @@
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B379" t="n">
         <v>258</v>
@@ -36650,7 +36650,7 @@
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B380" t="n">
         <v>615</v>
@@ -36745,7 +36745,7 @@
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B381" t="n">
         <v>675</v>
@@ -36840,7 +36840,7 @@
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B382" t="n">
         <v>135</v>
@@ -36935,7 +36935,7 @@
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B383" t="n">
         <v>259</v>
@@ -37030,7 +37030,7 @@
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B384" t="n">
         <v>260</v>
@@ -37125,7 +37125,7 @@
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B385" t="n">
         <v>614</v>
@@ -37220,7 +37220,7 @@
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B386" t="n">
         <v>616</v>
@@ -37315,7 +37315,7 @@
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B387" t="n">
         <v>134</v>
@@ -37410,7 +37410,7 @@
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B388" t="n">
         <v>262</v>
@@ -37505,7 +37505,7 @@
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B389" t="n">
         <v>613</v>
@@ -37600,7 +37600,7 @@
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B390" t="n">
         <v>676</v>
@@ -37695,7 +37695,7 @@
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B391" t="n">
         <v>133</v>
@@ -37790,7 +37790,7 @@
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B392" t="n">
         <v>263</v>
@@ -37885,7 +37885,7 @@
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B393" t="n">
         <v>264</v>
@@ -37980,7 +37980,7 @@
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B394" t="n">
         <v>612</v>
@@ -38075,7 +38075,7 @@
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B395" t="n">
         <v>132</v>
@@ -38170,7 +38170,7 @@
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B396" t="n">
         <v>265</v>
@@ -38265,7 +38265,7 @@
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B397" t="n">
         <v>266</v>
@@ -38360,7 +38360,7 @@
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B398" t="n">
         <v>261</v>
@@ -38455,7 +38455,7 @@
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B399" t="n">
         <v>136</v>
@@ -38550,7 +38550,7 @@
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B400" t="n">
         <v>255</v>
@@ -38645,7 +38645,7 @@
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B401" t="n">
         <v>254</v>
@@ -38740,7 +38740,7 @@
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B402" t="n">
         <v>621</v>
@@ -38835,7 +38835,7 @@
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B403" t="n">
         <v>672</v>
@@ -38930,7 +38930,7 @@
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B404" t="n">
         <v>141</v>
@@ -39025,7 +39025,7 @@
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B405" t="n">
         <v>246</v>
@@ -39120,7 +39120,7 @@
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B406" t="n">
         <v>247</v>
@@ -39215,7 +39215,7 @@
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B407" t="n">
         <v>620</v>
@@ -39310,7 +39310,7 @@
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B408" t="n">
         <v>140</v>
@@ -39405,7 +39405,7 @@
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B409" t="n">
         <v>497</v>
@@ -39500,7 +39500,7 @@
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B410" t="n">
         <v>248</v>
@@ -39595,7 +39595,7 @@
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B411" t="n">
         <v>249</v>
@@ -39690,7 +39690,7 @@
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B412" t="n">
         <v>619</v>
@@ -39785,7 +39785,7 @@
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B413" t="n">
         <v>673</v>
@@ -39880,7 +39880,7 @@
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B414" t="n">
         <v>139</v>
@@ -39975,7 +39975,7 @@
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B415" t="n">
         <v>250</v>
@@ -40070,7 +40070,7 @@
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B416" t="n">
         <v>8</v>
@@ -40165,7 +40165,7 @@
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B417" t="n">
         <v>251</v>
@@ -40260,7 +40260,7 @@
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B418" t="n">
         <v>618</v>
@@ -40355,7 +40355,7 @@
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B419" t="n">
         <v>138</v>
@@ -40450,7 +40450,7 @@
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B420" t="n">
         <v>252</v>
@@ -40545,7 +40545,7 @@
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B421" t="n">
         <v>253</v>
@@ -40640,7 +40640,7 @@
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B422" t="n">
         <v>617</v>
@@ -40735,7 +40735,7 @@
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B423" t="n">
         <v>674</v>
@@ -40830,7 +40830,7 @@
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B424" t="n">
         <v>137</v>
@@ -40925,7 +40925,7 @@
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B425" t="n">
         <v>244</v>
@@ -41020,7 +41020,7 @@
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B426" t="n">
         <v>611</v>
@@ -41115,7 +41115,7 @@
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B427" t="n">
         <v>153</v>
@@ -41210,7 +41210,7 @@
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B428" t="n">
         <v>221</v>
@@ -41305,7 +41305,7 @@
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B429" t="n">
         <v>170</v>
@@ -41400,7 +41400,7 @@
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B430" t="n">
         <v>188</v>
@@ -41495,7 +41495,7 @@
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B431" t="n">
         <v>649</v>
@@ -41590,7 +41590,7 @@
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B432" t="n">
         <v>169</v>
@@ -41685,7 +41685,7 @@
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B433" t="n">
         <v>189</v>
@@ -41780,7 +41780,7 @@
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B434" t="n">
         <v>190</v>
@@ -41875,7 +41875,7 @@
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B435" t="n">
         <v>648</v>
@@ -41970,7 +41970,7 @@
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B436" t="n">
         <v>659</v>
@@ -42065,7 +42065,7 @@
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B437" t="n">
         <v>191</v>
@@ -42160,7 +42160,7 @@
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B438" t="n">
         <v>168</v>
@@ -42255,7 +42255,7 @@
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B439" t="n">
         <v>187</v>
@@ -42350,7 +42350,7 @@
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B440" t="n">
         <v>192</v>
@@ -42445,7 +42445,7 @@
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B441" t="n">
         <v>167</v>
@@ -42540,7 +42540,7 @@
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B442" t="n">
         <v>193</v>
@@ -42635,7 +42635,7 @@
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B443" t="n">
         <v>194</v>
@@ -42730,7 +42730,7 @@
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B444" t="n">
         <v>646</v>
@@ -42825,7 +42825,7 @@
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B445" t="n">
         <v>660</v>
@@ -42920,7 +42920,7 @@
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B446" t="n">
         <v>195</v>
@@ -43015,7 +43015,7 @@
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B447" t="n">
         <v>166</v>
@@ -43110,7 +43110,7 @@
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B448" t="n">
         <v>196</v>
@@ -43205,7 +43205,7 @@
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B449" t="n">
         <v>645</v>
@@ -43300,7 +43300,7 @@
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B450" t="n">
         <v>165</v>
@@ -43395,7 +43395,7 @@
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B451" t="n">
         <v>647</v>
@@ -43490,7 +43490,7 @@
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B452" t="n">
         <v>658</v>
@@ -43585,7 +43585,7 @@
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B453" t="n">
         <v>650</v>
@@ -43680,7 +43680,7 @@
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B454" t="n">
         <v>186</v>
@@ -43775,7 +43775,7 @@
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B455" t="n">
         <v>655</v>
@@ -43870,7 +43870,7 @@
     </row>
     <row r="456">
       <c r="A456" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B456" t="n">
         <v>736</v>
@@ -43965,7 +43965,7 @@
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B457" t="n">
         <v>175</v>
@@ -44060,7 +44060,7 @@
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B458" t="n">
         <v>177</v>
@@ -44155,7 +44155,7 @@
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B459" t="n">
         <v>178</v>
@@ -44250,7 +44250,7 @@
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B460" t="n">
         <v>654</v>
@@ -44345,7 +44345,7 @@
     </row>
     <row r="461">
       <c r="A461" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B461" t="n">
         <v>656</v>
@@ -44440,7 +44440,7 @@
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B462" t="n">
         <v>179</v>
@@ -44535,7 +44535,7 @@
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B463" t="n">
         <v>174</v>
@@ -44630,7 +44630,7 @@
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B464" t="n">
         <v>180</v>
@@ -44725,7 +44725,7 @@
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B465" t="n">
         <v>11</v>
@@ -44820,7 +44820,7 @@
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B466" t="n">
         <v>653</v>
@@ -44915,7 +44915,7 @@
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B467" t="n">
         <v>173</v>
@@ -45010,7 +45010,7 @@
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B468" t="n">
         <v>181</v>
@@ -45105,7 +45105,7 @@
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B469" t="n">
         <v>182</v>
@@ -45200,7 +45200,7 @@
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B470" t="n">
         <v>652</v>
@@ -45295,7 +45295,7 @@
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B471" t="n">
         <v>657</v>
@@ -45390,7 +45390,7 @@
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B472" t="n">
         <v>183</v>
@@ -45485,7 +45485,7 @@
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B473" t="n">
         <v>172</v>
@@ -45580,7 +45580,7 @@
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B474" t="n">
         <v>184</v>
@@ -45675,7 +45675,7 @@
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B475" t="n">
         <v>651</v>
@@ -45770,7 +45770,7 @@
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B476" t="n">
         <v>171</v>
@@ -45865,7 +45865,7 @@
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B477" t="n">
         <v>185</v>
@@ -45960,7 +45960,7 @@
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B478" t="n">
         <v>197</v>
@@ -46055,7 +46055,7 @@
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B479" t="n">
         <v>633</v>
@@ -46150,7 +46150,7 @@
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B480" t="n">
         <v>10</v>
@@ -46245,7 +46245,7 @@
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B481" t="n">
         <v>644</v>
@@ -46340,7 +46340,7 @@
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B482" t="n">
         <v>638</v>
@@ -46435,7 +46435,7 @@
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B483" t="n">
         <v>664</v>
@@ -46530,7 +46530,7 @@
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B484" t="n">
         <v>158</v>
@@ -46625,7 +46625,7 @@
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B485" t="n">
         <v>212</v>
@@ -46720,7 +46720,7 @@
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B486" t="n">
         <v>213</v>
@@ -46815,7 +46815,7 @@
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B487" t="n">
         <v>637</v>
@@ -46910,7 +46910,7 @@
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B488" t="n">
         <v>157</v>
@@ -47005,7 +47005,7 @@
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B489" t="n">
         <v>214</v>
@@ -47100,7 +47100,7 @@
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B490" t="n">
         <v>215</v>
@@ -47195,7 +47195,7 @@
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B491" t="n">
         <v>636</v>
@@ -47290,7 +47290,7 @@
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B492" t="n">
         <v>211</v>
@@ -47385,7 +47385,7 @@
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B493" t="n">
         <v>665</v>
@@ -47480,7 +47480,7 @@
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B494" t="n">
         <v>216</v>
@@ -47575,7 +47575,7 @@
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B495" t="n">
         <v>217</v>
@@ -47670,7 +47670,7 @@
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B496" t="n">
         <v>635</v>
@@ -47765,7 +47765,7 @@
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B497" t="n">
         <v>155</v>
@@ -47860,7 +47860,7 @@
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B498" t="n">
         <v>218</v>
@@ -47955,7 +47955,7 @@
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B499" t="n">
         <v>219</v>
@@ -48050,7 +48050,7 @@
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B500" t="n">
         <v>634</v>
@@ -48145,7 +48145,7 @@
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B501" t="n">
         <v>666</v>
@@ -48240,7 +48240,7 @@
     </row>
     <row r="502">
       <c r="A502" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B502" t="n">
         <v>154</v>
@@ -48335,7 +48335,7 @@
     </row>
     <row r="503">
       <c r="A503" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B503" t="n">
         <v>220</v>
@@ -48430,7 +48430,7 @@
     </row>
     <row r="504">
       <c r="A504" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B504" t="n">
         <v>156</v>
@@ -48525,7 +48525,7 @@
     </row>
     <row r="505">
       <c r="A505" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B505" t="n">
         <v>210</v>
@@ -48620,7 +48620,7 @@
     </row>
     <row r="506">
       <c r="A506" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B506" t="n">
         <v>159</v>
@@ -48715,7 +48715,7 @@
     </row>
     <row r="507">
       <c r="A507" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B507" t="n">
         <v>639</v>
@@ -48810,7 +48810,7 @@
     </row>
     <row r="508">
       <c r="A508" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B508" t="n">
         <v>661</v>
@@ -48905,7 +48905,7 @@
     </row>
     <row r="509">
       <c r="A509" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B509" t="n">
         <v>199</v>
@@ -49000,7 +49000,7 @@
     </row>
     <row r="510">
       <c r="A510" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B510" t="n">
         <v>164</v>
@@ -49095,7 +49095,7 @@
     </row>
     <row r="511">
       <c r="A511" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B511" t="n">
         <v>200</v>
@@ -49190,7 +49190,7 @@
     </row>
     <row r="512">
       <c r="A512" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B512" t="n">
         <v>643</v>
@@ -49285,7 +49285,7 @@
     </row>
     <row r="513">
       <c r="A513" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B513" t="n">
         <v>163</v>
@@ -49380,7 +49380,7 @@
     </row>
     <row r="514">
       <c r="A514" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B514" t="n">
         <v>201</v>
@@ -49475,7 +49475,7 @@
     </row>
     <row r="515">
       <c r="A515" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B515" t="n">
         <v>202</v>
@@ -49570,7 +49570,7 @@
     </row>
     <row r="516">
       <c r="A516" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B516" t="n">
         <v>203</v>
@@ -49665,7 +49665,7 @@
     </row>
     <row r="517">
       <c r="A517" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B517" t="n">
         <v>642</v>
@@ -49760,7 +49760,7 @@
     </row>
     <row r="518">
       <c r="A518" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B518" t="n">
         <v>662</v>
@@ -49855,7 +49855,7 @@
     </row>
     <row r="519">
       <c r="A519" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B519" t="n">
         <v>162</v>
@@ -49950,7 +49950,7 @@
     </row>
     <row r="520">
       <c r="A520" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B520" t="n">
         <v>204</v>
@@ -50045,7 +50045,7 @@
     </row>
     <row r="521">
       <c r="A521" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B521" t="n">
         <v>205</v>
@@ -50140,7 +50140,7 @@
     </row>
     <row r="522">
       <c r="A522" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B522" t="n">
         <v>641</v>
@@ -50235,7 +50235,7 @@
     </row>
     <row r="523">
       <c r="A523" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B523" t="n">
         <v>161</v>
@@ -50330,7 +50330,7 @@
     </row>
     <row r="524">
       <c r="A524" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B524" t="n">
         <v>206</v>
@@ -50425,7 +50425,7 @@
     </row>
     <row r="525">
       <c r="A525" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B525" t="n">
         <v>207</v>
@@ -50520,7 +50520,7 @@
     </row>
     <row r="526">
       <c r="A526" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B526" t="n">
         <v>640</v>
@@ -50615,7 +50615,7 @@
     </row>
     <row r="527">
       <c r="A527" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B527" t="n">
         <v>663</v>
@@ -50710,7 +50710,7 @@
     </row>
     <row r="528">
       <c r="A528" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B528" t="n">
         <v>160</v>
@@ -50805,7 +50805,7 @@
     </row>
     <row r="529">
       <c r="A529" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B529" t="n">
         <v>208</v>
@@ -50900,7 +50900,7 @@
     </row>
     <row r="530">
       <c r="A530" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B530" t="n">
         <v>209</v>
@@ -50995,7 +50995,7 @@
     </row>
     <row r="531">
       <c r="A531" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B531" t="n">
         <v>198</v>
@@ -51090,7 +51090,7 @@
     </row>
     <row r="532">
       <c r="A532" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B532" t="n">
         <v>358</v>
@@ -51185,7 +51185,7 @@
     </row>
     <row r="533">
       <c r="A533" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B533" t="n">
         <v>677</v>
@@ -51290,7 +51290,7 @@
     </row>
     <row r="534">
       <c r="A534" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B534" t="n">
         <v>267</v>
@@ -51385,7 +51385,7 @@
     </row>
     <row r="535">
       <c r="A535" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B535" t="n">
         <v>582</v>
@@ -51480,7 +51480,7 @@
     </row>
     <row r="536">
       <c r="A536" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B536" t="n">
         <v>102</v>
@@ -51575,7 +51575,7 @@
     </row>
     <row r="537">
       <c r="A537" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B537" t="n">
         <v>326</v>
@@ -51670,7 +51670,7 @@
     </row>
     <row r="538">
       <c r="A538" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B538" t="n">
         <v>327</v>
@@ -51765,7 +51765,7 @@
     </row>
     <row r="539">
       <c r="A539" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B539" t="n">
         <v>581</v>
@@ -51860,7 +51860,7 @@
     </row>
     <row r="540">
       <c r="A540" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B540" t="n">
         <v>692</v>
@@ -51955,7 +51955,7 @@
     </row>
     <row r="541">
       <c r="A541" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B541" t="n">
         <v>328</v>
@@ -52050,7 +52050,7 @@
     </row>
     <row r="542">
       <c r="A542" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B542" t="n">
         <v>101</v>
@@ -52145,7 +52145,7 @@
     </row>
     <row r="543">
       <c r="A543" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B543" t="n">
         <v>329</v>
@@ -52240,7 +52240,7 @@
     </row>
     <row r="544">
       <c r="A544" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B544" t="n">
         <v>580</v>
@@ -52335,7 +52335,7 @@
     </row>
     <row r="545">
       <c r="A545" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B545" t="n">
         <v>325</v>
@@ -52430,7 +52430,7 @@
     </row>
     <row r="546">
       <c r="A546" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B546" t="n">
         <v>100</v>
@@ -52525,7 +52525,7 @@
     </row>
     <row r="547">
       <c r="A547" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B547" t="n">
         <v>331</v>
@@ -52620,7 +52620,7 @@
     </row>
     <row r="548">
       <c r="A548" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B548" t="n">
         <v>579</v>
@@ -52715,7 +52715,7 @@
     </row>
     <row r="549">
       <c r="A549" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B549" t="n">
         <v>693</v>
@@ -52810,7 +52810,7 @@
     </row>
     <row r="550">
       <c r="A550" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B550" t="n">
         <v>332</v>
@@ -52905,7 +52905,7 @@
     </row>
     <row r="551">
       <c r="A551" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B551" t="n">
         <v>99</v>
@@ -53000,7 +53000,7 @@
     </row>
     <row r="552">
       <c r="A552" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B552" t="n">
         <v>333</v>
@@ -53095,7 +53095,7 @@
     </row>
     <row r="553">
       <c r="A553" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B553" t="n">
         <v>578</v>
@@ -53190,7 +53190,7 @@
     </row>
     <row r="554">
       <c r="A554" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B554" t="n">
         <v>98</v>
@@ -53285,7 +53285,7 @@
     </row>
     <row r="555">
       <c r="A555" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B555" t="n">
         <v>334</v>
@@ -53380,7 +53380,7 @@
     </row>
     <row r="556">
       <c r="A556" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B556" t="n">
         <v>335</v>
@@ -53475,7 +53475,7 @@
     </row>
     <row r="557">
       <c r="A557" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B557" t="n">
         <v>330</v>
@@ -53570,7 +53570,7 @@
     </row>
     <row r="558">
       <c r="A558" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B558" t="n">
         <v>103</v>
@@ -53665,7 +53665,7 @@
     </row>
     <row r="559">
       <c r="A559" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B559" t="n">
         <v>324</v>
@@ -53760,7 +53760,7 @@
     </row>
     <row r="560">
       <c r="A560" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B560" t="n">
         <v>691</v>
@@ -53855,7 +53855,7 @@
     </row>
     <row r="561">
       <c r="A561" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B561" t="n">
         <v>588</v>
@@ -53950,7 +53950,7 @@
     </row>
     <row r="562">
       <c r="A562" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B562" t="n">
         <v>108</v>
@@ -54045,7 +54045,7 @@
     </row>
     <row r="563">
       <c r="A563" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B563" t="n">
         <v>314</v>
@@ -54140,7 +54140,7 @@
     </row>
     <row r="564">
       <c r="A564" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B564" t="n">
         <v>315</v>
@@ -54235,7 +54235,7 @@
     </row>
     <row r="565">
       <c r="A565" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B565" t="n">
         <v>587</v>
@@ -54330,7 +54330,7 @@
     </row>
     <row r="566">
       <c r="A566" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B566" t="n">
         <v>689</v>
@@ -54425,7 +54425,7 @@
     </row>
     <row r="567">
       <c r="A567" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B567" t="n">
         <v>316</v>
@@ -54520,7 +54520,7 @@
     </row>
     <row r="568">
       <c r="A568" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B568" t="n">
         <v>107</v>
@@ -54615,7 +54615,7 @@
     </row>
     <row r="569">
       <c r="A569" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B569" t="n">
         <v>317</v>
@@ -54710,7 +54710,7 @@
     </row>
     <row r="570">
       <c r="A570" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B570" t="n">
         <v>586</v>
@@ -54805,7 +54805,7 @@
     </row>
     <row r="571">
       <c r="A571" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B571" t="n">
         <v>106</v>
@@ -54900,7 +54900,7 @@
     </row>
     <row r="572">
       <c r="A572" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B572" t="n">
         <v>318</v>
@@ -54995,7 +54995,7 @@
     </row>
     <row r="573">
       <c r="A573" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B573" t="n">
         <v>319</v>
@@ -55090,7 +55090,7 @@
     </row>
     <row r="574">
       <c r="A574" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B574" t="n">
         <v>585</v>
@@ -55185,7 +55185,7 @@
     </row>
     <row r="575">
       <c r="A575" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B575" t="n">
         <v>690</v>
@@ -55280,7 +55280,7 @@
     </row>
     <row r="576">
       <c r="A576" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B576" t="n">
         <v>320</v>
@@ -55375,7 +55375,7 @@
     </row>
     <row r="577">
       <c r="A577" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B577" t="n">
         <v>105</v>
@@ -55470,7 +55470,7 @@
     </row>
     <row r="578">
       <c r="A578" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B578" t="n">
         <v>321</v>
@@ -55565,7 +55565,7 @@
     </row>
     <row r="579">
       <c r="A579" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B579" t="n">
         <v>584</v>
@@ -55660,7 +55660,7 @@
     </row>
     <row r="580">
       <c r="A580" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B580" t="n">
         <v>104</v>
@@ -55755,7 +55755,7 @@
     </row>
     <row r="581">
       <c r="A581" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B581" t="n">
         <v>322</v>
@@ -55850,7 +55850,7 @@
     </row>
     <row r="582">
       <c r="A582" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B582" t="n">
         <v>323</v>
@@ -55945,7 +55945,7 @@
     </row>
     <row r="583">
       <c r="A583" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B583" t="n">
         <v>583</v>
@@ -56040,7 +56040,7 @@
     </row>
     <row r="584">
       <c r="A584" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B584" t="n">
         <v>577</v>
@@ -56135,7 +56135,7 @@
     </row>
     <row r="585">
       <c r="A585" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B585" t="n">
         <v>313</v>
@@ -56230,7 +56230,7 @@
     </row>
     <row r="586">
       <c r="A586" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B586" t="n">
         <v>694</v>
@@ -56325,7 +56325,7 @@
     </row>
     <row r="587">
       <c r="A587" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B587" t="n">
         <v>336</v>
@@ -56420,7 +56420,7 @@
     </row>
     <row r="588">
       <c r="A588" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B588" t="n">
         <v>348</v>
@@ -56515,7 +56515,7 @@
     </row>
     <row r="589">
       <c r="A589" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B589" t="n">
         <v>349</v>
@@ -56610,7 +56610,7 @@
     </row>
     <row r="590">
       <c r="A590" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B590" t="n">
         <v>570</v>
@@ -56705,7 +56705,7 @@
     </row>
     <row r="591">
       <c r="A591" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B591" t="n">
         <v>697</v>
@@ -56800,7 +56800,7 @@
     </row>
     <row r="592">
       <c r="A592" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B592" t="n">
         <v>350</v>
@@ -56895,7 +56895,7 @@
     </row>
     <row r="593">
       <c r="A593" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B593" t="n">
         <v>90</v>
@@ -56990,7 +56990,7 @@
     </row>
     <row r="594">
       <c r="A594" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B594" t="n">
         <v>351</v>
@@ -57085,7 +57085,7 @@
     </row>
     <row r="595">
       <c r="A595" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B595" t="n">
         <v>569</v>
@@ -57180,7 +57180,7 @@
     </row>
     <row r="596">
       <c r="A596" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B596" t="n">
         <v>89</v>
@@ -57275,7 +57275,7 @@
     </row>
     <row r="597">
       <c r="A597" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B597" t="n">
         <v>352</v>
@@ -57370,7 +57370,7 @@
     </row>
     <row r="598">
       <c r="A598" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B598" t="n">
         <v>91</v>
@@ -57465,7 +57465,7 @@
     </row>
     <row r="599">
       <c r="A599" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B599" t="n">
         <v>353</v>
@@ -57560,7 +57560,7 @@
     </row>
     <row r="600">
       <c r="A600" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B600" t="n">
         <v>698</v>
@@ -57655,7 +57655,7 @@
     </row>
     <row r="601">
       <c r="A601" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B601" t="n">
         <v>354</v>
@@ -57750,7 +57750,7 @@
     </row>
     <row r="602">
       <c r="A602" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B602" t="n">
         <v>88</v>
@@ -57845,7 +57845,7 @@
     </row>
     <row r="603">
       <c r="A603" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B603" t="n">
         <v>355</v>
@@ -57940,7 +57940,7 @@
     </row>
     <row r="604">
       <c r="A604" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B604" t="n">
         <v>567</v>
@@ -58035,7 +58035,7 @@
     </row>
     <row r="605">
       <c r="A605" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B605" t="n">
         <v>87</v>
@@ -58130,7 +58130,7 @@
     </row>
     <row r="606">
       <c r="A606" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B606" t="n">
         <v>356</v>
@@ -58225,7 +58225,7 @@
     </row>
     <row r="607">
       <c r="A607" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B607" t="n">
         <v>4</v>
@@ -58320,7 +58320,7 @@
     </row>
     <row r="608">
       <c r="A608" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B608" t="n">
         <v>357</v>
@@ -58415,7 +58415,7 @@
     </row>
     <row r="609">
       <c r="A609" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B609" t="n">
         <v>566</v>
@@ -58510,7 +58510,7 @@
     </row>
     <row r="610">
       <c r="A610" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B610" t="n">
         <v>568</v>
@@ -58605,7 +58605,7 @@
     </row>
     <row r="611">
       <c r="A611" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B611" t="n">
         <v>571</v>
@@ -58700,7 +58700,7 @@
     </row>
     <row r="612">
       <c r="A612" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B612" t="n">
         <v>347</v>
@@ -58795,7 +58795,7 @@
     </row>
     <row r="613">
       <c r="A613" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B613" t="n">
         <v>14</v>
@@ -58890,7 +58890,7 @@
     </row>
     <row r="614">
       <c r="A614" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B614" t="n">
         <v>337</v>
@@ -58985,7 +58985,7 @@
     </row>
     <row r="615">
       <c r="A615" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B615" t="n">
         <v>576</v>
@@ -59080,7 +59080,7 @@
     </row>
     <row r="616">
       <c r="A616" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B616" t="n">
         <v>96</v>
@@ -59175,7 +59175,7 @@
     </row>
     <row r="617">
       <c r="A617" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B617" t="n">
         <v>338</v>
@@ -59270,7 +59270,7 @@
     </row>
     <row r="618">
       <c r="A618" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B618" t="n">
         <v>5</v>
@@ -59365,7 +59365,7 @@
     </row>
     <row r="619">
       <c r="A619" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B619" t="n">
         <v>339</v>
@@ -59460,7 +59460,7 @@
     </row>
     <row r="620">
       <c r="A620" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B620" t="n">
         <v>575</v>
@@ -59555,7 +59555,7 @@
     </row>
     <row r="621">
       <c r="A621" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B621" t="n">
         <v>695</v>
@@ -59650,7 +59650,7 @@
     </row>
     <row r="622">
       <c r="A622" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B622" t="n">
         <v>340</v>
@@ -59745,7 +59745,7 @@
     </row>
     <row r="623">
       <c r="A623" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B623" t="n">
         <v>95</v>
@@ -59840,7 +59840,7 @@
     </row>
     <row r="624">
       <c r="A624" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B624" t="n">
         <v>341</v>
@@ -59935,7 +59935,7 @@
     </row>
     <row r="625">
       <c r="A625" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B625" t="n">
         <v>574</v>
@@ -60030,7 +60030,7 @@
     </row>
     <row r="626">
       <c r="A626" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B626" t="n">
         <v>94</v>
@@ -60125,7 +60125,7 @@
     </row>
     <row r="627">
       <c r="A627" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B627" t="n">
         <v>342</v>
@@ -60220,7 +60220,7 @@
     </row>
     <row r="628">
       <c r="A628" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B628" t="n">
         <v>343</v>
@@ -60315,7 +60315,7 @@
     </row>
     <row r="629">
       <c r="A629" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B629" t="n">
         <v>573</v>
@@ -60410,7 +60410,7 @@
     </row>
     <row r="630">
       <c r="A630" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B630" t="n">
         <v>93</v>
@@ -60505,7 +60505,7 @@
     </row>
     <row r="631">
       <c r="A631" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B631" t="n">
         <v>344</v>
@@ -60600,7 +60600,7 @@
     </row>
     <row r="632">
       <c r="A632" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B632" t="n">
         <v>345</v>
@@ -60695,7 +60695,7 @@
     </row>
     <row r="633">
       <c r="A633" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B633" t="n">
         <v>572</v>
@@ -60790,7 +60790,7 @@
     </row>
     <row r="634">
       <c r="A634" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B634" t="n">
         <v>696</v>
@@ -60885,7 +60885,7 @@
     </row>
     <row r="635">
       <c r="A635" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B635" t="n">
         <v>92</v>
@@ -60980,7 +60980,7 @@
     </row>
     <row r="636">
       <c r="A636" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B636" t="n">
         <v>346</v>
@@ -61075,7 +61075,7 @@
     </row>
     <row r="637">
       <c r="A637" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B637" t="n">
         <v>739</v>
@@ -61170,7 +61170,7 @@
     </row>
     <row r="638">
       <c r="A638" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B638" t="n">
         <v>131</v>
@@ -61265,7 +61265,7 @@
     </row>
     <row r="639">
       <c r="A639" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B639" t="n">
         <v>109</v>
@@ -61360,7 +61360,7 @@
     </row>
     <row r="640">
       <c r="A640" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B640" t="n">
         <v>688</v>
@@ -61465,7 +61465,7 @@
     </row>
     <row r="641">
       <c r="A641" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B641" t="n">
         <v>125</v>
@@ -61560,7 +61560,7 @@
     </row>
     <row r="642">
       <c r="A642" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B642" t="n">
         <v>280</v>
@@ -61655,7 +61655,7 @@
     </row>
     <row r="643">
       <c r="A643" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B643" t="n">
         <v>604</v>
@@ -61750,7 +61750,7 @@
     </row>
     <row r="644">
       <c r="A644" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B644" t="n">
         <v>124</v>
@@ -61845,7 +61845,7 @@
     </row>
     <row r="645">
       <c r="A645" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B645" t="n">
         <v>281</v>
@@ -61940,7 +61940,7 @@
     </row>
     <row r="646">
       <c r="A646" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B646" t="n">
         <v>282</v>
@@ -62035,7 +62035,7 @@
     </row>
     <row r="647">
       <c r="A647" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B647" t="n">
         <v>603</v>
@@ -62130,7 +62130,7 @@
     </row>
     <row r="648">
       <c r="A648" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B648" t="n">
         <v>738</v>
@@ -62225,7 +62225,7 @@
     </row>
     <row r="649">
       <c r="A649" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B649" t="n">
         <v>681</v>
@@ -62320,7 +62320,7 @@
     </row>
     <row r="650">
       <c r="A650" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B650" t="n">
         <v>283</v>
@@ -62415,7 +62415,7 @@
     </row>
     <row r="651">
       <c r="A651" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B651" t="n">
         <v>279</v>
@@ -62510,7 +62510,7 @@
     </row>
     <row r="652">
       <c r="A652" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B652" t="n">
         <v>123</v>
@@ -62605,7 +62605,7 @@
     </row>
     <row r="653">
       <c r="A653" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B653" t="n">
         <v>602</v>
@@ -62700,7 +62700,7 @@
     </row>
     <row r="654">
       <c r="A654" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B654" t="n">
         <v>122</v>
@@ -62795,7 +62795,7 @@
     </row>
     <row r="655">
       <c r="A655" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B655" t="n">
         <v>285</v>
@@ -62890,7 +62890,7 @@
     </row>
     <row r="656">
       <c r="A656" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B656" t="n">
         <v>7</v>
@@ -62985,7 +62985,7 @@
     </row>
     <row r="657">
       <c r="A657" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B657" t="n">
         <v>286</v>
@@ -63080,7 +63080,7 @@
     </row>
     <row r="658">
       <c r="A658" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B658" t="n">
         <v>601</v>
@@ -63175,7 +63175,7 @@
     </row>
     <row r="659">
       <c r="A659" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B659" t="n">
         <v>735</v>
@@ -63270,7 +63270,7 @@
     </row>
     <row r="660">
       <c r="A660" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B660" t="n">
         <v>287</v>
@@ -63365,7 +63365,7 @@
     </row>
     <row r="661">
       <c r="A661" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B661" t="n">
         <v>682</v>
@@ -63460,7 +63460,7 @@
     </row>
     <row r="662">
       <c r="A662" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B662" t="n">
         <v>288</v>
@@ -63555,7 +63555,7 @@
     </row>
     <row r="663">
       <c r="A663" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B663" t="n">
         <v>284</v>
@@ -63650,7 +63650,7 @@
     </row>
     <row r="664">
       <c r="A664" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B664" t="n">
         <v>680</v>
@@ -63745,7 +63745,7 @@
     </row>
     <row r="665">
       <c r="A665" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B665" t="n">
         <v>605</v>
@@ -63840,7 +63840,7 @@
     </row>
     <row r="666">
       <c r="A666" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B666" t="n">
         <v>278</v>
@@ -63935,7 +63935,7 @@
     </row>
     <row r="667">
       <c r="A667" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B667" t="n">
         <v>268</v>
@@ -64030,7 +64030,7 @@
     </row>
     <row r="668">
       <c r="A668" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B668" t="n">
         <v>610</v>
@@ -64125,7 +64125,7 @@
     </row>
     <row r="669">
       <c r="A669" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B669" t="n">
         <v>130</v>
@@ -64220,7 +64220,7 @@
     </row>
     <row r="670">
       <c r="A670" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B670" t="n">
         <v>269</v>
@@ -64315,7 +64315,7 @@
     </row>
     <row r="671">
       <c r="A671" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B671" t="n">
         <v>270</v>
@@ -64410,7 +64410,7 @@
     </row>
     <row r="672">
       <c r="A672" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B672" t="n">
         <v>609</v>
@@ -64505,7 +64505,7 @@
     </row>
     <row r="673">
       <c r="A673" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B673" t="n">
         <v>678</v>
@@ -64600,7 +64600,7 @@
     </row>
     <row r="674">
       <c r="A674" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B674" t="n">
         <v>129</v>
@@ -64695,7 +64695,7 @@
     </row>
     <row r="675">
       <c r="A675" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B675" t="n">
         <v>271</v>
@@ -64790,7 +64790,7 @@
     </row>
     <row r="676">
       <c r="A676" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B676" t="n">
         <v>272</v>
@@ -64885,7 +64885,7 @@
     </row>
     <row r="677">
       <c r="A677" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B677" t="n">
         <v>608</v>
@@ -64980,7 +64980,7 @@
     </row>
     <row r="678">
       <c r="A678" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B678" t="n">
         <v>128</v>
@@ -65075,7 +65075,7 @@
     </row>
     <row r="679">
       <c r="A679" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B679" t="n">
         <v>273</v>
@@ -65170,7 +65170,7 @@
     </row>
     <row r="680">
       <c r="A680" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B680" t="n">
         <v>274</v>
@@ -65265,7 +65265,7 @@
     </row>
     <row r="681">
       <c r="A681" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B681" t="n">
         <v>607</v>
@@ -65360,7 +65360,7 @@
     </row>
     <row r="682">
       <c r="A682" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B682" t="n">
         <v>679</v>
@@ -65455,7 +65455,7 @@
     </row>
     <row r="683">
       <c r="A683" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B683" t="n">
         <v>13</v>
@@ -65550,7 +65550,7 @@
     </row>
     <row r="684">
       <c r="A684" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B684" t="n">
         <v>275</v>
@@ -65645,7 +65645,7 @@
     </row>
     <row r="685">
       <c r="A685" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B685" t="n">
         <v>127</v>
@@ -65740,7 +65740,7 @@
     </row>
     <row r="686">
       <c r="A686" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B686" t="n">
         <v>276</v>
@@ -65835,7 +65835,7 @@
     </row>
     <row r="687">
       <c r="A687" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B687" t="n">
         <v>606</v>
@@ -65930,7 +65930,7 @@
     </row>
     <row r="688">
       <c r="A688" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B688" t="n">
         <v>126</v>
@@ -66025,7 +66025,7 @@
     </row>
     <row r="689">
       <c r="A689" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B689" t="n">
         <v>277</v>
@@ -66120,7 +66120,7 @@
     </row>
     <row r="690">
       <c r="A690" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B690" t="n">
         <v>600</v>
@@ -66225,7 +66225,7 @@
     </row>
     <row r="691">
       <c r="A691" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B691" t="n">
         <v>312</v>
@@ -66320,7 +66320,7 @@
     </row>
     <row r="692">
       <c r="A692" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B692" t="n">
         <v>121</v>
@@ -66415,7 +66415,7 @@
     </row>
     <row r="693">
       <c r="A693" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B693" t="n">
         <v>120</v>
@@ -66510,7 +66510,7 @@
     </row>
     <row r="694">
       <c r="A694" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B694" t="n">
         <v>302</v>
@@ -66605,7 +66605,7 @@
     </row>
     <row r="695">
       <c r="A695" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B695" t="n">
         <v>593</v>
@@ -66700,7 +66700,7 @@
     </row>
     <row r="696">
       <c r="A696" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B696" t="n">
         <v>303</v>
@@ -66795,7 +66795,7 @@
     </row>
     <row r="697">
       <c r="A697" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B697" t="n">
         <v>6</v>
@@ -66890,7 +66890,7 @@
     </row>
     <row r="698">
       <c r="A698" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B698" t="n">
         <v>686</v>
@@ -66985,7 +66985,7 @@
     </row>
     <row r="699">
       <c r="A699" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B699" t="n">
         <v>304</v>
@@ -67080,7 +67080,7 @@
     </row>
     <row r="700">
       <c r="A700" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B700" t="n">
         <v>592</v>
@@ -67175,7 +67175,7 @@
     </row>
     <row r="701">
       <c r="A701" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B701" t="n">
         <v>113</v>
@@ -67270,7 +67270,7 @@
     </row>
     <row r="702">
       <c r="A702" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B702" t="n">
         <v>305</v>
@@ -67365,7 +67365,7 @@
     </row>
     <row r="703">
       <c r="A703" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B703" t="n">
         <v>112</v>
@@ -67460,7 +67460,7 @@
     </row>
     <row r="704">
       <c r="A704" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B704" t="n">
         <v>114</v>
@@ -67555,7 +67555,7 @@
     </row>
     <row r="705">
       <c r="A705" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B705" t="n">
         <v>306</v>
@@ -67650,7 +67650,7 @@
     </row>
     <row r="706">
       <c r="A706" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B706" t="n">
         <v>307</v>
@@ -67745,7 +67745,7 @@
     </row>
     <row r="707">
       <c r="A707" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B707" t="n">
         <v>687</v>
@@ -67840,7 +67840,7 @@
     </row>
     <row r="708">
       <c r="A708" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B708" t="n">
         <v>308</v>
@@ -67935,7 +67935,7 @@
     </row>
     <row r="709">
       <c r="A709" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B709" t="n">
         <v>590</v>
@@ -68030,7 +68030,7 @@
     </row>
     <row r="710">
       <c r="A710" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B710" t="n">
         <v>111</v>
@@ -68125,7 +68125,7 @@
     </row>
     <row r="711">
       <c r="A711" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B711" t="n">
         <v>309</v>
@@ -68220,7 +68220,7 @@
     </row>
     <row r="712">
       <c r="A712" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B712" t="n">
         <v>110</v>
@@ -68315,7 +68315,7 @@
     </row>
     <row r="713">
       <c r="A713" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B713" t="n">
         <v>310</v>
@@ -68410,7 +68410,7 @@
     </row>
     <row r="714">
       <c r="A714" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B714" t="n">
         <v>589</v>
@@ -68505,7 +68505,7 @@
     </row>
     <row r="715">
       <c r="A715" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B715" t="n">
         <v>311</v>
@@ -68600,7 +68600,7 @@
     </row>
     <row r="716">
       <c r="A716" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B716" t="n">
         <v>591</v>
@@ -68695,7 +68695,7 @@
     </row>
     <row r="717">
       <c r="A717" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B717" t="n">
         <v>301</v>
@@ -68790,7 +68790,7 @@
     </row>
     <row r="718">
       <c r="A718" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B718" t="n">
         <v>115</v>
@@ -68885,7 +68885,7 @@
     </row>
     <row r="719">
       <c r="A719" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B719" t="n">
         <v>594</v>
@@ -68980,7 +68980,7 @@
     </row>
     <row r="720">
       <c r="A720" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B720" t="n">
         <v>290</v>
@@ -69075,7 +69075,7 @@
     </row>
     <row r="721">
       <c r="A721" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B721" t="n">
         <v>599</v>
@@ -69170,7 +69170,7 @@
     </row>
     <row r="722">
       <c r="A722" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B722" t="n">
         <v>291</v>
@@ -69265,7 +69265,7 @@
     </row>
     <row r="723">
       <c r="A723" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B723" t="n">
         <v>683</v>
@@ -69360,7 +69360,7 @@
     </row>
     <row r="724">
       <c r="A724" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B724" t="n">
         <v>292</v>
@@ -69455,7 +69455,7 @@
     </row>
     <row r="725">
       <c r="A725" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B725" t="n">
         <v>598</v>
@@ -69550,7 +69550,7 @@
     </row>
     <row r="726">
       <c r="A726" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B726" t="n">
         <v>119</v>
@@ -69645,7 +69645,7 @@
     </row>
     <row r="727">
       <c r="A727" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B727" t="n">
         <v>293</v>
@@ -69740,7 +69740,7 @@
     </row>
     <row r="728">
       <c r="A728" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B728" t="n">
         <v>118</v>
@@ -69835,7 +69835,7 @@
     </row>
     <row r="729">
       <c r="A729" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B729" t="n">
         <v>294</v>
@@ -69930,7 +69930,7 @@
     </row>
     <row r="730">
       <c r="A730" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B730" t="n">
         <v>597</v>
@@ -70025,7 +70025,7 @@
     </row>
     <row r="731">
       <c r="A731" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B731" t="n">
         <v>295</v>
@@ -70120,7 +70120,7 @@
     </row>
     <row r="732">
       <c r="A732" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B732" t="n">
         <v>684</v>
@@ -70215,7 +70215,7 @@
     </row>
     <row r="733">
       <c r="A733" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B733" t="n">
         <v>296</v>
@@ -70310,7 +70310,7 @@
     </row>
     <row r="734">
       <c r="A734" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B734" t="n">
         <v>596</v>
@@ -70405,7 +70405,7 @@
     </row>
     <row r="735">
       <c r="A735" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B735" t="n">
         <v>117</v>
@@ -70500,7 +70500,7 @@
     </row>
     <row r="736">
       <c r="A736" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B736" t="n">
         <v>297</v>
@@ -70595,7 +70595,7 @@
     </row>
     <row r="737">
       <c r="A737" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B737" t="n">
         <v>116</v>
@@ -70690,7 +70690,7 @@
     </row>
     <row r="738">
       <c r="A738" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B738" t="n">
         <v>298</v>
@@ -70785,7 +70785,7 @@
     </row>
     <row r="739">
       <c r="A739" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B739" t="n">
         <v>595</v>
@@ -70880,7 +70880,7 @@
     </row>
     <row r="740">
       <c r="A740" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B740" t="n">
         <v>299</v>
@@ -70975,7 +70975,7 @@
     </row>
     <row r="741">
       <c r="A741" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B741" t="n">
         <v>685</v>
@@ -71070,7 +71070,7 @@
     </row>
     <row r="742">
       <c r="A742" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B742" t="n">
         <v>300</v>
@@ -71165,7 +71165,7 @@
     </row>
     <row r="743">
       <c r="A743" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B743" t="n">
         <v>289</v>
@@ -71260,7 +71260,7 @@
     </row>
     <row r="744">
       <c r="A744" s="2" t="n">
-        <v>46014.47270674769</v>
+        <v>46014.50569717593</v>
       </c>
       <c r="B744" t="n">
         <v>742</v>
